--- a/cuadro_columnas.xlsx
+++ b/cuadro_columnas.xlsx
@@ -646,7 +646,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>N+3000@N+2900</t>
+          <t>N+2900@N+3000</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -714,7 +714,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>N+2900@N+2800</t>
+          <t>N+2800@N+2900</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -782,12 +782,42 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>N+2800@N+2700</t>
+          <t>N+2700@N+2800</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>b x h</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
         </is>
       </c>
     </row>
@@ -797,6 +827,36 @@
           <t>f'c</t>
         </is>
       </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="B22" t="inlineStr">
@@ -804,6 +864,36 @@
           <t>As</t>
         </is>
       </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="B23" t="inlineStr">
@@ -850,12 +940,82 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>N+2700@N+2600</t>
+          <t>N+2600@N+2700</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>b x h</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>0.5x1.0</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>0.5x1.0</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
         </is>
       </c>
     </row>
@@ -865,6 +1025,76 @@
           <t>f'c</t>
         </is>
       </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="B31" t="inlineStr">
@@ -872,6 +1102,76 @@
           <t>As</t>
         </is>
       </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>18 #6</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>18 #6</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="B32" t="inlineStr">
@@ -918,12 +1218,82 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>N+2600@N+2500</t>
+          <t>N+2500@N+2600</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>b x h</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>0.5x1.0</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>0.5x1.0</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
         </is>
       </c>
     </row>
@@ -933,6 +1303,76 @@
           <t>f'c</t>
         </is>
       </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="B40" t="inlineStr">
@@ -940,6 +1380,76 @@
           <t>As</t>
         </is>
       </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>18 #6</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>18 #6</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="B41" t="inlineStr">
@@ -986,12 +1496,82 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>N+2500@N+2400</t>
+          <t>N+2400@N+2500</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>b x h</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>0.5x1.0</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>0.5x1.0</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
         </is>
       </c>
     </row>
@@ -1001,6 +1581,76 @@
           <t>f'c</t>
         </is>
       </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="B49" t="inlineStr">
@@ -1008,6 +1658,76 @@
           <t>As</t>
         </is>
       </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>18 #6</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>18 #6</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="B50" t="inlineStr">
@@ -1054,12 +1774,82 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>N+2400@N+2300</t>
+          <t>N+2300@N+2400</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>b x h</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>0.5x1.0</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>0.5x1.0</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
         </is>
       </c>
     </row>
@@ -1069,6 +1859,76 @@
           <t>f'c</t>
         </is>
       </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="B58" t="inlineStr">
@@ -1076,6 +1936,76 @@
           <t>As</t>
         </is>
       </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>18 #6</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>18 #6</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="B59" t="inlineStr">
@@ -1122,12 +2052,82 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>N+2300@N+2200</t>
+          <t>N+2200@N+2300</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>b x h</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>0.5x1.0</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>0.5x1.0</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
         </is>
       </c>
     </row>
@@ -1137,6 +2137,76 @@
           <t>f'c</t>
         </is>
       </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="B67" t="inlineStr">
@@ -1144,6 +2214,76 @@
           <t>As</t>
         </is>
       </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>18 #6</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>18 #6</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="B68" t="inlineStr">
@@ -1190,12 +2330,82 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>N+2200@N+2100</t>
+          <t>N+2100@N+2200</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>b x h</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>0.5x1.0</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>0.5x1.0</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="W74" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
         </is>
       </c>
     </row>
@@ -1205,6 +2415,76 @@
           <t>f'c</t>
         </is>
       </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>4500Psi</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>4500Psi</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>4500Psi</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>4500Psi</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>4500Psi</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>4500Psi</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>4500Psi</t>
+        </is>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>4500Psi</t>
+        </is>
+      </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>4500Psi</t>
+        </is>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>4500Psi</t>
+        </is>
+      </c>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>4500Psi</t>
+        </is>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>4500Psi</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>4500Psi</t>
+        </is>
+      </c>
+      <c r="W75" t="inlineStr">
+        <is>
+          <t>4500Psi</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="B76" t="inlineStr">
@@ -1212,6 +2492,76 @@
           <t>As</t>
         </is>
       </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>18 #7</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>18 #7</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="W76" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="B77" t="inlineStr">
@@ -1258,12 +2608,82 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>N+2100@N+2000</t>
+          <t>N+2000@N+2100</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>b x h</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>0.5x1.0</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>0.5x1.0</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="T83" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="W83" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
         </is>
       </c>
     </row>
@@ -1273,6 +2693,76 @@
           <t>f'c</t>
         </is>
       </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>4500Psi</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>4500Psi</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>4500Psi</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>4500Psi</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>4500Psi</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>4500Psi</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>4500Psi</t>
+        </is>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>4500Psi</t>
+        </is>
+      </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>4500Psi</t>
+        </is>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>4500Psi</t>
+        </is>
+      </c>
+      <c r="T84" t="inlineStr">
+        <is>
+          <t>4500Psi</t>
+        </is>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>4500Psi</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>4500Psi</t>
+        </is>
+      </c>
+      <c r="W84" t="inlineStr">
+        <is>
+          <t>4500Psi</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="B85" t="inlineStr">
@@ -1280,6 +2770,76 @@
           <t>As</t>
         </is>
       </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>18 #7</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>18 #7</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="W85" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="B86" t="inlineStr">
@@ -1326,12 +2886,82 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>N+2000@N+1900</t>
+          <t>N+1900@N+2000</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>b x h</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>0.5x1.0</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>0.5x1.0</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="T92" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="W92" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
         </is>
       </c>
     </row>
@@ -1341,6 +2971,76 @@
           <t>f'c</t>
         </is>
       </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>4500Psi</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>4500Psi</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>4500Psi</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>4500Psi</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>4500Psi</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>4500Psi</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>4500Psi</t>
+        </is>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>4500Psi</t>
+        </is>
+      </c>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>4500Psi</t>
+        </is>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>4500Psi</t>
+        </is>
+      </c>
+      <c r="T93" t="inlineStr">
+        <is>
+          <t>4500Psi</t>
+        </is>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>4500Psi</t>
+        </is>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>4500Psi</t>
+        </is>
+      </c>
+      <c r="W93" t="inlineStr">
+        <is>
+          <t>4500Psi</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="B94" t="inlineStr">
@@ -1348,6 +3048,76 @@
           <t>As</t>
         </is>
       </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>18 #7</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>18 #7</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="T94" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="W94" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="B95" t="inlineStr">
@@ -1394,12 +3164,82 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>N+1900@N+1800</t>
+          <t>N+1800@N+1900</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>b x h</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>0.5x1.0</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>0.5x1.0</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="R101" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="T101" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="W101" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
         </is>
       </c>
     </row>
@@ -1409,6 +3249,76 @@
           <t>f'c</t>
         </is>
       </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>5000Psi</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>5000Psi</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>5000Psi</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>5000Psi</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>5000Psi</t>
+        </is>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>5000Psi</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>5000Psi</t>
+        </is>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>5000Psi</t>
+        </is>
+      </c>
+      <c r="R102" t="inlineStr">
+        <is>
+          <t>5000Psi</t>
+        </is>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>5000Psi</t>
+        </is>
+      </c>
+      <c r="T102" t="inlineStr">
+        <is>
+          <t>5000Psi</t>
+        </is>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>5000Psi</t>
+        </is>
+      </c>
+      <c r="V102" t="inlineStr">
+        <is>
+          <t>5000Psi</t>
+        </is>
+      </c>
+      <c r="W102" t="inlineStr">
+        <is>
+          <t>5000Psi</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="B103" t="inlineStr">
@@ -1416,6 +3326,76 @@
           <t>As</t>
         </is>
       </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>18 #7</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>18 #7</t>
+        </is>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="R103" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="T103" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="V103" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="W103" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="B104" t="inlineStr">
@@ -1462,12 +3442,82 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>N+1800@N+1700</t>
+          <t>N+1700@N+1800</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>b x h</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>0.5x1.0</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>0.5x1.0</t>
+        </is>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="R110" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="S110" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="T110" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="U110" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="V110" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="W110" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
         </is>
       </c>
     </row>
@@ -1477,6 +3527,76 @@
           <t>f'c</t>
         </is>
       </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>5000Psi</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>5000Psi</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>5000Psi</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>5000Psi</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>5000Psi</t>
+        </is>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>5000Psi</t>
+        </is>
+      </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>5000Psi</t>
+        </is>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>5000Psi</t>
+        </is>
+      </c>
+      <c r="R111" t="inlineStr">
+        <is>
+          <t>5000Psi</t>
+        </is>
+      </c>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>5000Psi</t>
+        </is>
+      </c>
+      <c r="T111" t="inlineStr">
+        <is>
+          <t>5000Psi</t>
+        </is>
+      </c>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>5000Psi</t>
+        </is>
+      </c>
+      <c r="V111" t="inlineStr">
+        <is>
+          <t>5000Psi</t>
+        </is>
+      </c>
+      <c r="W111" t="inlineStr">
+        <is>
+          <t>5000Psi</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="B112" t="inlineStr">
@@ -1484,6 +3604,76 @@
           <t>As</t>
         </is>
       </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>18 #7</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>18 #7</t>
+        </is>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="R112" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="S112" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="T112" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="U112" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="V112" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="W112" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="B113" t="inlineStr">
@@ -1530,12 +3720,82 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>N+1700@N+1600</t>
+          <t>N+1600@N+1700</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>b x h</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>0.5x1.0</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>0.5x1.0</t>
+        </is>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="R119" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="S119" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="T119" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="U119" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="V119" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="W119" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
         </is>
       </c>
     </row>
@@ -1545,6 +3805,76 @@
           <t>f'c</t>
         </is>
       </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>5000Psi</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>5000Psi</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>5000Psi</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>5000Psi</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>5000Psi</t>
+        </is>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>5000Psi</t>
+        </is>
+      </c>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t>5000Psi</t>
+        </is>
+      </c>
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>5000Psi</t>
+        </is>
+      </c>
+      <c r="R120" t="inlineStr">
+        <is>
+          <t>5000Psi</t>
+        </is>
+      </c>
+      <c r="S120" t="inlineStr">
+        <is>
+          <t>5000Psi</t>
+        </is>
+      </c>
+      <c r="T120" t="inlineStr">
+        <is>
+          <t>5000Psi</t>
+        </is>
+      </c>
+      <c r="U120" t="inlineStr">
+        <is>
+          <t>5000Psi</t>
+        </is>
+      </c>
+      <c r="V120" t="inlineStr">
+        <is>
+          <t>5000Psi</t>
+        </is>
+      </c>
+      <c r="W120" t="inlineStr">
+        <is>
+          <t>5000Psi</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="B121" t="inlineStr">
@@ -1552,6 +3882,76 @@
           <t>As</t>
         </is>
       </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>18 #7</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>18 #7</t>
+        </is>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="Q121" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="R121" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="S121" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="T121" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="U121" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="V121" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="W121" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="B122" t="inlineStr">
@@ -1598,12 +3998,82 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>N+1600@N+1500</t>
+          <t>N+1500@N+1600</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
           <t>b x h</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>0.5x1.0</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>0.5x1.0</t>
+        </is>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="P128" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="Q128" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="R128" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="S128" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="T128" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="U128" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="V128" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="W128" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
         </is>
       </c>
     </row>
@@ -1613,6 +4083,76 @@
           <t>f'c</t>
         </is>
       </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>5500Psi</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>5500Psi</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>5500Psi</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>5500Psi</t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>5500Psi</t>
+        </is>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>5500Psi</t>
+        </is>
+      </c>
+      <c r="P129" t="inlineStr">
+        <is>
+          <t>5500Psi</t>
+        </is>
+      </c>
+      <c r="Q129" t="inlineStr">
+        <is>
+          <t>5500Psi</t>
+        </is>
+      </c>
+      <c r="R129" t="inlineStr">
+        <is>
+          <t>5500Psi</t>
+        </is>
+      </c>
+      <c r="S129" t="inlineStr">
+        <is>
+          <t>5500Psi</t>
+        </is>
+      </c>
+      <c r="T129" t="inlineStr">
+        <is>
+          <t>5500Psi</t>
+        </is>
+      </c>
+      <c r="U129" t="inlineStr">
+        <is>
+          <t>5500Psi</t>
+        </is>
+      </c>
+      <c r="V129" t="inlineStr">
+        <is>
+          <t>5500Psi</t>
+        </is>
+      </c>
+      <c r="W129" t="inlineStr">
+        <is>
+          <t>5500Psi</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="B130" t="inlineStr">
@@ -1620,6 +4160,76 @@
           <t>As</t>
         </is>
       </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>18 #7</t>
+        </is>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>18 #7</t>
+        </is>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="P130" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="Q130" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="R130" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="S130" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="T130" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="U130" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="V130" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="W130" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="B131" t="inlineStr">
@@ -1666,12 +4276,82 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>N+1500@N+1400</t>
+          <t>N+1400@N+1500</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
           <t>b x h</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>0.5x1.0</t>
+        </is>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>0.5x1.0</t>
+        </is>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="P137" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="Q137" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="R137" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="S137" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="T137" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="U137" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="V137" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="W137" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
         </is>
       </c>
     </row>
@@ -1681,6 +4361,76 @@
           <t>f'c</t>
         </is>
       </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>5500Psi</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>5500Psi</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>5500Psi</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>5500Psi</t>
+        </is>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>5500Psi</t>
+        </is>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>5500Psi</t>
+        </is>
+      </c>
+      <c r="P138" t="inlineStr">
+        <is>
+          <t>5500Psi</t>
+        </is>
+      </c>
+      <c r="Q138" t="inlineStr">
+        <is>
+          <t>5500Psi</t>
+        </is>
+      </c>
+      <c r="R138" t="inlineStr">
+        <is>
+          <t>5500Psi</t>
+        </is>
+      </c>
+      <c r="S138" t="inlineStr">
+        <is>
+          <t>5500Psi</t>
+        </is>
+      </c>
+      <c r="T138" t="inlineStr">
+        <is>
+          <t>5500Psi</t>
+        </is>
+      </c>
+      <c r="U138" t="inlineStr">
+        <is>
+          <t>5500Psi</t>
+        </is>
+      </c>
+      <c r="V138" t="inlineStr">
+        <is>
+          <t>5500Psi</t>
+        </is>
+      </c>
+      <c r="W138" t="inlineStr">
+        <is>
+          <t>5500Psi</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="B139" t="inlineStr">
@@ -1688,6 +4438,76 @@
           <t>As</t>
         </is>
       </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>18 #7</t>
+        </is>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>18 #7</t>
+        </is>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="P139" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="Q139" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="R139" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="S139" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="T139" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="U139" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="V139" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="W139" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="B140" t="inlineStr">
@@ -1734,12 +4554,82 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>N+1400@N+1300</t>
+          <t>N+1300@N+1400</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
           <t>b x h</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>0.5x1.0</t>
+        </is>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>0.5x1.0</t>
+        </is>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="Q146" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="R146" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="S146" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="T146" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="U146" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="V146" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="W146" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
         </is>
       </c>
     </row>
@@ -1749,6 +4639,76 @@
           <t>f'c</t>
         </is>
       </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>5500Psi</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>5500Psi</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>5500Psi</t>
+        </is>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>5500Psi</t>
+        </is>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>5500Psi</t>
+        </is>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>5500Psi</t>
+        </is>
+      </c>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>5500Psi</t>
+        </is>
+      </c>
+      <c r="Q147" t="inlineStr">
+        <is>
+          <t>5500Psi</t>
+        </is>
+      </c>
+      <c r="R147" t="inlineStr">
+        <is>
+          <t>5500Psi</t>
+        </is>
+      </c>
+      <c r="S147" t="inlineStr">
+        <is>
+          <t>5500Psi</t>
+        </is>
+      </c>
+      <c r="T147" t="inlineStr">
+        <is>
+          <t>5500Psi</t>
+        </is>
+      </c>
+      <c r="U147" t="inlineStr">
+        <is>
+          <t>5500Psi</t>
+        </is>
+      </c>
+      <c r="V147" t="inlineStr">
+        <is>
+          <t>5500Psi</t>
+        </is>
+      </c>
+      <c r="W147" t="inlineStr">
+        <is>
+          <t>5500Psi</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="B148" t="inlineStr">
@@ -1756,6 +4716,76 @@
           <t>As</t>
         </is>
       </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>18 #7</t>
+        </is>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>18 #7</t>
+        </is>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="Q148" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="R148" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="S148" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="T148" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="U148" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="V148" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="W148" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="B149" t="inlineStr">
@@ -1802,12 +4832,82 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>N+1300@N+1200</t>
+          <t>N+1200@N+1300</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
           <t>b x h</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>0.6x1.0</t>
+        </is>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>0.6x1.0</t>
+        </is>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="Q155" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="R155" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="S155" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="T155" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="U155" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="V155" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="W155" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
         </is>
       </c>
     </row>
@@ -1817,6 +4917,76 @@
           <t>f'c</t>
         </is>
       </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>6000Psi</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>6000Psi</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>6000Psi</t>
+        </is>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>6000Psi</t>
+        </is>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>6000Psi</t>
+        </is>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>6000Psi</t>
+        </is>
+      </c>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>6000Psi</t>
+        </is>
+      </c>
+      <c r="Q156" t="inlineStr">
+        <is>
+          <t>6000Psi</t>
+        </is>
+      </c>
+      <c r="R156" t="inlineStr">
+        <is>
+          <t>6000Psi</t>
+        </is>
+      </c>
+      <c r="S156" t="inlineStr">
+        <is>
+          <t>6000Psi</t>
+        </is>
+      </c>
+      <c r="T156" t="inlineStr">
+        <is>
+          <t>6000Psi</t>
+        </is>
+      </c>
+      <c r="U156" t="inlineStr">
+        <is>
+          <t>6000Psi</t>
+        </is>
+      </c>
+      <c r="V156" t="inlineStr">
+        <is>
+          <t>6000Psi</t>
+        </is>
+      </c>
+      <c r="W156" t="inlineStr">
+        <is>
+          <t>6000Psi</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="B157" t="inlineStr">
@@ -1824,6 +4994,76 @@
           <t>As</t>
         </is>
       </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>18 #7</t>
+        </is>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>18 #7</t>
+        </is>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="Q157" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="R157" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="S157" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="T157" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="U157" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="V157" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="W157" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="B158" t="inlineStr">
@@ -1870,12 +5110,82 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>N+1200@N+1100</t>
+          <t>N+1100@N+1200</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
           <t>b x h</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>0.6x1.0</t>
+        </is>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>0.6x1.0</t>
+        </is>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="P164" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="Q164" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="R164" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="S164" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="T164" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="U164" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="V164" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="W164" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
         </is>
       </c>
     </row>
@@ -1885,6 +5195,76 @@
           <t>f'c</t>
         </is>
       </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>6000Psi</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>6000Psi</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>6000Psi</t>
+        </is>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>6000Psi</t>
+        </is>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>6000Psi</t>
+        </is>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>6000Psi</t>
+        </is>
+      </c>
+      <c r="P165" t="inlineStr">
+        <is>
+          <t>6000Psi</t>
+        </is>
+      </c>
+      <c r="Q165" t="inlineStr">
+        <is>
+          <t>6000Psi</t>
+        </is>
+      </c>
+      <c r="R165" t="inlineStr">
+        <is>
+          <t>6000Psi</t>
+        </is>
+      </c>
+      <c r="S165" t="inlineStr">
+        <is>
+          <t>6000Psi</t>
+        </is>
+      </c>
+      <c r="T165" t="inlineStr">
+        <is>
+          <t>6000Psi</t>
+        </is>
+      </c>
+      <c r="U165" t="inlineStr">
+        <is>
+          <t>6000Psi</t>
+        </is>
+      </c>
+      <c r="V165" t="inlineStr">
+        <is>
+          <t>6000Psi</t>
+        </is>
+      </c>
+      <c r="W165" t="inlineStr">
+        <is>
+          <t>6000Psi</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="B166" t="inlineStr">
@@ -1892,6 +5272,76 @@
           <t>As</t>
         </is>
       </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>18 #7</t>
+        </is>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>18 #7</t>
+        </is>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="P166" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="Q166" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="R166" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="S166" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="T166" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="U166" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="V166" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="W166" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="B167" t="inlineStr">
@@ -1938,12 +5388,82 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>N+1100@N+1000</t>
+          <t>N+1000@N+1100</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
           <t>b x h</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>0.6x1.0</t>
+        </is>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>0.6x1.0</t>
+        </is>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="P173" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="Q173" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="R173" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="S173" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="T173" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="U173" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="V173" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="W173" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
         </is>
       </c>
     </row>
@@ -1953,6 +5473,76 @@
           <t>f'c</t>
         </is>
       </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>6000Psi</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>6000Psi</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>6000Psi</t>
+        </is>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>6000Psi</t>
+        </is>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>6000Psi</t>
+        </is>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>6000Psi</t>
+        </is>
+      </c>
+      <c r="P174" t="inlineStr">
+        <is>
+          <t>6000Psi</t>
+        </is>
+      </c>
+      <c r="Q174" t="inlineStr">
+        <is>
+          <t>6000Psi</t>
+        </is>
+      </c>
+      <c r="R174" t="inlineStr">
+        <is>
+          <t>6000Psi</t>
+        </is>
+      </c>
+      <c r="S174" t="inlineStr">
+        <is>
+          <t>6000Psi</t>
+        </is>
+      </c>
+      <c r="T174" t="inlineStr">
+        <is>
+          <t>6000Psi</t>
+        </is>
+      </c>
+      <c r="U174" t="inlineStr">
+        <is>
+          <t>6000Psi</t>
+        </is>
+      </c>
+      <c r="V174" t="inlineStr">
+        <is>
+          <t>6000Psi</t>
+        </is>
+      </c>
+      <c r="W174" t="inlineStr">
+        <is>
+          <t>6000Psi</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="B175" t="inlineStr">
@@ -1960,6 +5550,76 @@
           <t>As</t>
         </is>
       </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>18 #7</t>
+        </is>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>18 #7</t>
+        </is>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="P175" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="Q175" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="R175" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="S175" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="T175" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="U175" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="V175" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="W175" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="B176" t="inlineStr">
@@ -2006,12 +5666,82 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>N+1000@N+900</t>
+          <t>N+900@N+1000</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
           <t>b x h</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>0.6x1.0</t>
+        </is>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>0.6x1.0</t>
+        </is>
+      </c>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="P182" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="Q182" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="R182" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="S182" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="T182" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="U182" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="V182" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="W182" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
         </is>
       </c>
     </row>
@@ -2021,6 +5751,76 @@
           <t>f'c</t>
         </is>
       </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>6500Psi</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>6500Psi</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>6500Psi</t>
+        </is>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>6500Psi</t>
+        </is>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>6500Psi</t>
+        </is>
+      </c>
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>6500Psi</t>
+        </is>
+      </c>
+      <c r="P183" t="inlineStr">
+        <is>
+          <t>6500Psi</t>
+        </is>
+      </c>
+      <c r="Q183" t="inlineStr">
+        <is>
+          <t>6500Psi</t>
+        </is>
+      </c>
+      <c r="R183" t="inlineStr">
+        <is>
+          <t>6500Psi</t>
+        </is>
+      </c>
+      <c r="S183" t="inlineStr">
+        <is>
+          <t>6500Psi</t>
+        </is>
+      </c>
+      <c r="T183" t="inlineStr">
+        <is>
+          <t>6500Psi</t>
+        </is>
+      </c>
+      <c r="U183" t="inlineStr">
+        <is>
+          <t>6500Psi</t>
+        </is>
+      </c>
+      <c r="V183" t="inlineStr">
+        <is>
+          <t>6500Psi</t>
+        </is>
+      </c>
+      <c r="W183" t="inlineStr">
+        <is>
+          <t>6500Psi</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="B184" t="inlineStr">
@@ -2028,6 +5828,76 @@
           <t>As</t>
         </is>
       </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="P184" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="Q184" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="R184" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="S184" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="T184" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="U184" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="V184" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="W184" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="B185" t="inlineStr">
@@ -2074,12 +5944,82 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>N+900@N+800</t>
+          <t>N+800@N+900</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
           <t>b x h</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>0.6x1.0</t>
+        </is>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>0.6x1.0</t>
+        </is>
+      </c>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="P191" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="Q191" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="R191" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="S191" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="T191" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="U191" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="V191" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="W191" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
         </is>
       </c>
     </row>
@@ -2089,6 +6029,76 @@
           <t>f'c</t>
         </is>
       </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>6500Psi</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>6500Psi</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>6500Psi</t>
+        </is>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>6500Psi</t>
+        </is>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>6500Psi</t>
+        </is>
+      </c>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>6500Psi</t>
+        </is>
+      </c>
+      <c r="P192" t="inlineStr">
+        <is>
+          <t>6500Psi</t>
+        </is>
+      </c>
+      <c r="Q192" t="inlineStr">
+        <is>
+          <t>6500Psi</t>
+        </is>
+      </c>
+      <c r="R192" t="inlineStr">
+        <is>
+          <t>6500Psi</t>
+        </is>
+      </c>
+      <c r="S192" t="inlineStr">
+        <is>
+          <t>6500Psi</t>
+        </is>
+      </c>
+      <c r="T192" t="inlineStr">
+        <is>
+          <t>6500Psi</t>
+        </is>
+      </c>
+      <c r="U192" t="inlineStr">
+        <is>
+          <t>6500Psi</t>
+        </is>
+      </c>
+      <c r="V192" t="inlineStr">
+        <is>
+          <t>6500Psi</t>
+        </is>
+      </c>
+      <c r="W192" t="inlineStr">
+        <is>
+          <t>6500Psi</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="B193" t="inlineStr">
@@ -2096,6 +6106,76 @@
           <t>As</t>
         </is>
       </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="P193" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="Q193" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="R193" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="S193" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="T193" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="U193" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="V193" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="W193" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="B194" t="inlineStr">
@@ -2142,12 +6222,82 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>N+800@N+700</t>
+          <t>N+700@N+800</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
           <t>b x h</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>0.6x1.0</t>
+        </is>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>0.6x1.0</t>
+        </is>
+      </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="P200" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="Q200" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="R200" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="S200" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="T200" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="U200" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="V200" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="W200" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
         </is>
       </c>
     </row>
@@ -2157,6 +6307,76 @@
           <t>f'c</t>
         </is>
       </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>6500Psi</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>6500Psi</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>6500Psi</t>
+        </is>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>6500Psi</t>
+        </is>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>6500Psi</t>
+        </is>
+      </c>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>6500Psi</t>
+        </is>
+      </c>
+      <c r="P201" t="inlineStr">
+        <is>
+          <t>6500Psi</t>
+        </is>
+      </c>
+      <c r="Q201" t="inlineStr">
+        <is>
+          <t>6500Psi</t>
+        </is>
+      </c>
+      <c r="R201" t="inlineStr">
+        <is>
+          <t>6500Psi</t>
+        </is>
+      </c>
+      <c r="S201" t="inlineStr">
+        <is>
+          <t>6500Psi</t>
+        </is>
+      </c>
+      <c r="T201" t="inlineStr">
+        <is>
+          <t>6500Psi</t>
+        </is>
+      </c>
+      <c r="U201" t="inlineStr">
+        <is>
+          <t>6500Psi</t>
+        </is>
+      </c>
+      <c r="V201" t="inlineStr">
+        <is>
+          <t>6500Psi</t>
+        </is>
+      </c>
+      <c r="W201" t="inlineStr">
+        <is>
+          <t>6500Psi</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="B202" t="inlineStr">
@@ -2164,6 +6384,76 @@
           <t>As</t>
         </is>
       </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="P202" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="Q202" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="R202" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="S202" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="T202" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="U202" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="V202" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="W202" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="B203" t="inlineStr">
@@ -2210,12 +6500,82 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>N+700@N+600</t>
+          <t>N+600@N+700</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
           <t>b x h</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>0.6x1.5</t>
+        </is>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>0.65x1.0</t>
+        </is>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>0.65x1.0</t>
+        </is>
+      </c>
+      <c r="O209" t="inlineStr">
+        <is>
+          <t>0.6x1.5</t>
+        </is>
+      </c>
+      <c r="P209" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="Q209" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="R209" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="S209" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="T209" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="U209" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="V209" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="W209" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
         </is>
       </c>
     </row>
@@ -2225,6 +6585,76 @@
           <t>f'c</t>
         </is>
       </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>7000psi</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>7000psi</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>7000psi</t>
+        </is>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>7000psi</t>
+        </is>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>7000psi</t>
+        </is>
+      </c>
+      <c r="O210" t="inlineStr">
+        <is>
+          <t>7000psi</t>
+        </is>
+      </c>
+      <c r="P210" t="inlineStr">
+        <is>
+          <t>7000psi</t>
+        </is>
+      </c>
+      <c r="Q210" t="inlineStr">
+        <is>
+          <t>7000psi</t>
+        </is>
+      </c>
+      <c r="R210" t="inlineStr">
+        <is>
+          <t>7000psi</t>
+        </is>
+      </c>
+      <c r="S210" t="inlineStr">
+        <is>
+          <t>7000psi</t>
+        </is>
+      </c>
+      <c r="T210" t="inlineStr">
+        <is>
+          <t>7000psi</t>
+        </is>
+      </c>
+      <c r="U210" t="inlineStr">
+        <is>
+          <t>7000psi</t>
+        </is>
+      </c>
+      <c r="V210" t="inlineStr">
+        <is>
+          <t>7000psi</t>
+        </is>
+      </c>
+      <c r="W210" t="inlineStr">
+        <is>
+          <t>7000psi</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="B211" t="inlineStr">
@@ -2232,6 +6662,76 @@
           <t>As</t>
         </is>
       </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="O211" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="P211" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="Q211" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="R211" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="S211" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="T211" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="U211" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="V211" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="W211" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="B212" t="inlineStr">
@@ -2278,12 +6778,82 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>N+600@N+550</t>
+          <t>N+550@N+600</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
           <t>b x h</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>0.6x1.5</t>
+        </is>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>0.65x1.0</t>
+        </is>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>0.65x1.0</t>
+        </is>
+      </c>
+      <c r="O218" t="inlineStr">
+        <is>
+          <t>0.6x1.5</t>
+        </is>
+      </c>
+      <c r="P218" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="Q218" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="R218" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="S218" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="T218" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="U218" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="V218" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="W218" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
         </is>
       </c>
     </row>
@@ -2293,6 +6863,76 @@
           <t>f'c</t>
         </is>
       </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>7000psi</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>7000psi</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>7000psi</t>
+        </is>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>7000psi</t>
+        </is>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>7000psi</t>
+        </is>
+      </c>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>7000psi</t>
+        </is>
+      </c>
+      <c r="P219" t="inlineStr">
+        <is>
+          <t>7000psi</t>
+        </is>
+      </c>
+      <c r="Q219" t="inlineStr">
+        <is>
+          <t>7000psi</t>
+        </is>
+      </c>
+      <c r="R219" t="inlineStr">
+        <is>
+          <t>7000psi</t>
+        </is>
+      </c>
+      <c r="S219" t="inlineStr">
+        <is>
+          <t>7000psi</t>
+        </is>
+      </c>
+      <c r="T219" t="inlineStr">
+        <is>
+          <t>7000psi</t>
+        </is>
+      </c>
+      <c r="U219" t="inlineStr">
+        <is>
+          <t>7000psi</t>
+        </is>
+      </c>
+      <c r="V219" t="inlineStr">
+        <is>
+          <t>7000psi</t>
+        </is>
+      </c>
+      <c r="W219" t="inlineStr">
+        <is>
+          <t>7000psi</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="B220" t="inlineStr">
@@ -2300,6 +6940,76 @@
           <t>As</t>
         </is>
       </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="P220" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="Q220" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="R220" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="S220" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="T220" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="U220" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="V220" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="W220" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="B221" t="inlineStr">
@@ -2346,12 +7056,82 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>N+550@N+500 (AS)</t>
+          <t>N+500 (AS)@N+550</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
           <t>b x h</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>0.6x1.5</t>
+        </is>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>0.65x1.0</t>
+        </is>
+      </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>0.65x1.0</t>
+        </is>
+      </c>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>0.6x1.5</t>
+        </is>
+      </c>
+      <c r="P227" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="Q227" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="R227" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="S227" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="T227" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="U227" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="V227" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="W227" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
         </is>
       </c>
     </row>
@@ -2361,6 +7141,76 @@
           <t>f'c</t>
         </is>
       </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>7000psi</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>7000psi</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>7000psi</t>
+        </is>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>7000psi</t>
+        </is>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>7000psi</t>
+        </is>
+      </c>
+      <c r="O228" t="inlineStr">
+        <is>
+          <t>7000psi</t>
+        </is>
+      </c>
+      <c r="P228" t="inlineStr">
+        <is>
+          <t>7000psi</t>
+        </is>
+      </c>
+      <c r="Q228" t="inlineStr">
+        <is>
+          <t>7000psi</t>
+        </is>
+      </c>
+      <c r="R228" t="inlineStr">
+        <is>
+          <t>7000psi</t>
+        </is>
+      </c>
+      <c r="S228" t="inlineStr">
+        <is>
+          <t>7000psi</t>
+        </is>
+      </c>
+      <c r="T228" t="inlineStr">
+        <is>
+          <t>7000psi</t>
+        </is>
+      </c>
+      <c r="U228" t="inlineStr">
+        <is>
+          <t>7000psi</t>
+        </is>
+      </c>
+      <c r="V228" t="inlineStr">
+        <is>
+          <t>7000psi</t>
+        </is>
+      </c>
+      <c r="W228" t="inlineStr">
+        <is>
+          <t>7000psi</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="B229" t="inlineStr">
@@ -2368,6 +7218,76 @@
           <t>As</t>
         </is>
       </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="O229" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="P229" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="Q229" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="R229" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="S229" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="T229" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="U229" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="V229" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
+      <c r="W229" t="inlineStr">
+        <is>
+          <t>18 #8</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="B230" t="inlineStr">
@@ -2414,12 +7334,192 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>N+500 (AS)@N+400</t>
+          <t>N+400@N+500 (AS)</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
           <t>b x h</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>0.4x0.5</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>0.4x0.5</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>0.4x0.5</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>0.65x1.5</t>
+        </is>
+      </c>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>0.5x1.0</t>
+        </is>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>0.5x1.0</t>
+        </is>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>0.65x1.0</t>
+        </is>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>0.65x1.0</t>
+        </is>
+      </c>
+      <c r="M236" t="inlineStr">
+        <is>
+          <t>0.5x1.0</t>
+        </is>
+      </c>
+      <c r="N236" t="inlineStr">
+        <is>
+          <t>0.5x1.0</t>
+        </is>
+      </c>
+      <c r="O236" t="inlineStr">
+        <is>
+          <t>0.65x1.5</t>
+        </is>
+      </c>
+      <c r="P236" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="Q236" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="R236" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="S236" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="T236" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="U236" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="V236" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="W236" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="AB236" t="inlineStr">
+        <is>
+          <t>0.5x1.0</t>
+        </is>
+      </c>
+      <c r="AC236" t="inlineStr">
+        <is>
+          <t>0.5x1.0</t>
+        </is>
+      </c>
+      <c r="AD236" t="inlineStr">
+        <is>
+          <t>0.5x1.0</t>
+        </is>
+      </c>
+      <c r="AE236" t="inlineStr">
+        <is>
+          <t>0.5x1.0</t>
+        </is>
+      </c>
+      <c r="AF236" t="inlineStr">
+        <is>
+          <t>0.4x0.5</t>
+        </is>
+      </c>
+      <c r="AG236" t="inlineStr">
+        <is>
+          <t>0.4x0.5</t>
+        </is>
+      </c>
+      <c r="AH236" t="inlineStr">
+        <is>
+          <t>0.4x0.5</t>
+        </is>
+      </c>
+      <c r="AI236" t="inlineStr">
+        <is>
+          <t>0.4x0.5</t>
+        </is>
+      </c>
+      <c r="AJ236" t="inlineStr">
+        <is>
+          <t>0.4x0.8</t>
+        </is>
+      </c>
+      <c r="AL236" t="inlineStr">
+        <is>
+          <t>0.4x0.5</t>
+        </is>
+      </c>
+      <c r="AM236" t="inlineStr">
+        <is>
+          <t>0.4x0.5</t>
+        </is>
+      </c>
+      <c r="AN236" t="inlineStr">
+        <is>
+          <t>0.4x0.5</t>
+        </is>
+      </c>
+      <c r="AO236" t="inlineStr">
+        <is>
+          <t>0.4x0.5</t>
+        </is>
+      </c>
+      <c r="AP236" t="inlineStr">
+        <is>
+          <t>0.4x0.5</t>
+        </is>
+      </c>
+      <c r="AQ236" t="inlineStr">
+        <is>
+          <t>0.4x0.5</t>
         </is>
       </c>
     </row>
@@ -2429,6 +7529,186 @@
           <t>f'c</t>
         </is>
       </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>7500psi</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>7500psi</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>7500psi</t>
+        </is>
+      </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>7500psi</t>
+        </is>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>7500psi</t>
+        </is>
+      </c>
+      <c r="M237" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="N237" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="O237" t="inlineStr">
+        <is>
+          <t>7500psi</t>
+        </is>
+      </c>
+      <c r="P237" t="inlineStr">
+        <is>
+          <t>7500psi</t>
+        </is>
+      </c>
+      <c r="Q237" t="inlineStr">
+        <is>
+          <t>7500psi</t>
+        </is>
+      </c>
+      <c r="R237" t="inlineStr">
+        <is>
+          <t>7500psi</t>
+        </is>
+      </c>
+      <c r="S237" t="inlineStr">
+        <is>
+          <t>7500psi</t>
+        </is>
+      </c>
+      <c r="T237" t="inlineStr">
+        <is>
+          <t>7500psi</t>
+        </is>
+      </c>
+      <c r="U237" t="inlineStr">
+        <is>
+          <t>7500psi</t>
+        </is>
+      </c>
+      <c r="V237" t="inlineStr">
+        <is>
+          <t>7500psi</t>
+        </is>
+      </c>
+      <c r="W237" t="inlineStr">
+        <is>
+          <t>7500psi</t>
+        </is>
+      </c>
+      <c r="AB237" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="AC237" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="AD237" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="AE237" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="AF237" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="AG237" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="AH237" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="AI237" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="AJ237" t="inlineStr">
+        <is>
+          <t>6000Psi</t>
+        </is>
+      </c>
+      <c r="AL237" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="AM237" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="AN237" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="AO237" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="AP237" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="AQ237" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="B238" t="inlineStr">
@@ -2436,6 +7716,186 @@
           <t>As</t>
         </is>
       </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>18 #9</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>12 #6</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>12 #6</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>12 #6</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>18 #9</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>24 #9</t>
+        </is>
+      </c>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>18 #6</t>
+        </is>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>18 #6</t>
+        </is>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>24 #10</t>
+        </is>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>24 #10</t>
+        </is>
+      </c>
+      <c r="M238" t="inlineStr">
+        <is>
+          <t>18 #6</t>
+        </is>
+      </c>
+      <c r="N238" t="inlineStr">
+        <is>
+          <t>18 #6</t>
+        </is>
+      </c>
+      <c r="O238" t="inlineStr">
+        <is>
+          <t>24 #9</t>
+        </is>
+      </c>
+      <c r="P238" t="inlineStr">
+        <is>
+          <t>18 #9</t>
+        </is>
+      </c>
+      <c r="Q238" t="inlineStr">
+        <is>
+          <t>18 #9</t>
+        </is>
+      </c>
+      <c r="R238" t="inlineStr">
+        <is>
+          <t>18 #9</t>
+        </is>
+      </c>
+      <c r="S238" t="inlineStr">
+        <is>
+          <t>18 #9</t>
+        </is>
+      </c>
+      <c r="T238" t="inlineStr">
+        <is>
+          <t>18 #9</t>
+        </is>
+      </c>
+      <c r="U238" t="inlineStr">
+        <is>
+          <t>18 #9</t>
+        </is>
+      </c>
+      <c r="V238" t="inlineStr">
+        <is>
+          <t>18 #9</t>
+        </is>
+      </c>
+      <c r="W238" t="inlineStr">
+        <is>
+          <t>18 #9</t>
+        </is>
+      </c>
+      <c r="AB238" t="inlineStr">
+        <is>
+          <t>18 #6</t>
+        </is>
+      </c>
+      <c r="AC238" t="inlineStr">
+        <is>
+          <t>18 #6</t>
+        </is>
+      </c>
+      <c r="AD238" t="inlineStr">
+        <is>
+          <t>18 #6</t>
+        </is>
+      </c>
+      <c r="AE238" t="inlineStr">
+        <is>
+          <t>18 #6</t>
+        </is>
+      </c>
+      <c r="AF238" t="inlineStr">
+        <is>
+          <t>12 #6</t>
+        </is>
+      </c>
+      <c r="AG238" t="inlineStr">
+        <is>
+          <t>12 #6</t>
+        </is>
+      </c>
+      <c r="AH238" t="inlineStr">
+        <is>
+          <t>12 #6</t>
+        </is>
+      </c>
+      <c r="AI238" t="inlineStr">
+        <is>
+          <t>12 #6</t>
+        </is>
+      </c>
+      <c r="AJ238" t="inlineStr">
+        <is>
+          <t>16 #7</t>
+        </is>
+      </c>
+      <c r="AL238" t="inlineStr">
+        <is>
+          <t>12 #6</t>
+        </is>
+      </c>
+      <c r="AM238" t="inlineStr">
+        <is>
+          <t>12 #6</t>
+        </is>
+      </c>
+      <c r="AN238" t="inlineStr">
+        <is>
+          <t>12 #6</t>
+        </is>
+      </c>
+      <c r="AO238" t="inlineStr">
+        <is>
+          <t>12 #6</t>
+        </is>
+      </c>
+      <c r="AP238" t="inlineStr">
+        <is>
+          <t>12 #6</t>
+        </is>
+      </c>
+      <c r="AQ238" t="inlineStr">
+        <is>
+          <t>12 #6</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="B239" t="inlineStr">
@@ -2482,12 +7942,152 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>N+400@N+300</t>
+          <t>N+300@N+400</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
           <t>b x h</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>0.4x0.5</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>0.4x0.5</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>0.4x0.5</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>0.65x1.5</t>
+        </is>
+      </c>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t>0.5x1.0</t>
+        </is>
+      </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>0.5x1.0</t>
+        </is>
+      </c>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>0.65x1.0</t>
+        </is>
+      </c>
+      <c r="M245" t="inlineStr">
+        <is>
+          <t>0.5x1.0</t>
+        </is>
+      </c>
+      <c r="N245" t="inlineStr">
+        <is>
+          <t>0.5x1.0</t>
+        </is>
+      </c>
+      <c r="O245" t="inlineStr">
+        <is>
+          <t>0.65x1.5</t>
+        </is>
+      </c>
+      <c r="P245" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="Q245" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="R245" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="S245" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="U245" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="V245" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="W245" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="AF245" t="inlineStr">
+        <is>
+          <t>0.4x0.5</t>
+        </is>
+      </c>
+      <c r="AG245" t="inlineStr">
+        <is>
+          <t>0.4x0.5</t>
+        </is>
+      </c>
+      <c r="AH245" t="inlineStr">
+        <is>
+          <t>0.4x0.5</t>
+        </is>
+      </c>
+      <c r="AI245" t="inlineStr">
+        <is>
+          <t>0.4x0.5</t>
+        </is>
+      </c>
+      <c r="AJ245" t="inlineStr">
+        <is>
+          <t>0.4x0.8</t>
+        </is>
+      </c>
+      <c r="AL245" t="inlineStr">
+        <is>
+          <t>0.4x0.5</t>
+        </is>
+      </c>
+      <c r="AM245" t="inlineStr">
+        <is>
+          <t>0.4x0.5</t>
+        </is>
+      </c>
+      <c r="AN245" t="inlineStr">
+        <is>
+          <t>0.4x0.5</t>
+        </is>
+      </c>
+      <c r="AO245" t="inlineStr">
+        <is>
+          <t>0.4x0.5</t>
         </is>
       </c>
     </row>
@@ -2497,6 +8097,146 @@
           <t>f'c</t>
         </is>
       </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>7500psi</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>7500psi</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>7500psi</t>
+        </is>
+      </c>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>7500psi</t>
+        </is>
+      </c>
+      <c r="M246" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="N246" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="O246" t="inlineStr">
+        <is>
+          <t>7500psi</t>
+        </is>
+      </c>
+      <c r="P246" t="inlineStr">
+        <is>
+          <t>7500psi</t>
+        </is>
+      </c>
+      <c r="Q246" t="inlineStr">
+        <is>
+          <t>7500psi</t>
+        </is>
+      </c>
+      <c r="R246" t="inlineStr">
+        <is>
+          <t>7500psi</t>
+        </is>
+      </c>
+      <c r="S246" t="inlineStr">
+        <is>
+          <t>7500psi</t>
+        </is>
+      </c>
+      <c r="U246" t="inlineStr">
+        <is>
+          <t>7500psi</t>
+        </is>
+      </c>
+      <c r="V246" t="inlineStr">
+        <is>
+          <t>7500psi</t>
+        </is>
+      </c>
+      <c r="W246" t="inlineStr">
+        <is>
+          <t>7500psi</t>
+        </is>
+      </c>
+      <c r="AF246" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="AG246" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="AH246" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="AI246" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="AJ246" t="inlineStr">
+        <is>
+          <t>6000Psi</t>
+        </is>
+      </c>
+      <c r="AL246" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="AM246" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="AN246" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="AO246" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="B247" t="inlineStr">
@@ -2504,6 +8244,146 @@
           <t>As</t>
         </is>
       </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>18 #9</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>12 #6</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>12 #6</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>12 #6</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>18 #9</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>24 #9</t>
+        </is>
+      </c>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t>18 #6</t>
+        </is>
+      </c>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>18 #6</t>
+        </is>
+      </c>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>24 #10</t>
+        </is>
+      </c>
+      <c r="M247" t="inlineStr">
+        <is>
+          <t>18 #6</t>
+        </is>
+      </c>
+      <c r="N247" t="inlineStr">
+        <is>
+          <t>18 #6</t>
+        </is>
+      </c>
+      <c r="O247" t="inlineStr">
+        <is>
+          <t>24 #9</t>
+        </is>
+      </c>
+      <c r="P247" t="inlineStr">
+        <is>
+          <t>18 #9</t>
+        </is>
+      </c>
+      <c r="Q247" t="inlineStr">
+        <is>
+          <t>18 #9</t>
+        </is>
+      </c>
+      <c r="R247" t="inlineStr">
+        <is>
+          <t>18 #9</t>
+        </is>
+      </c>
+      <c r="S247" t="inlineStr">
+        <is>
+          <t>18 #9</t>
+        </is>
+      </c>
+      <c r="U247" t="inlineStr">
+        <is>
+          <t>18 #9</t>
+        </is>
+      </c>
+      <c r="V247" t="inlineStr">
+        <is>
+          <t>18 #9</t>
+        </is>
+      </c>
+      <c r="W247" t="inlineStr">
+        <is>
+          <t>18 #9</t>
+        </is>
+      </c>
+      <c r="AF247" t="inlineStr">
+        <is>
+          <t>12 #6</t>
+        </is>
+      </c>
+      <c r="AG247" t="inlineStr">
+        <is>
+          <t>12 #6</t>
+        </is>
+      </c>
+      <c r="AH247" t="inlineStr">
+        <is>
+          <t>12 #6</t>
+        </is>
+      </c>
+      <c r="AI247" t="inlineStr">
+        <is>
+          <t>12 #6</t>
+        </is>
+      </c>
+      <c r="AJ247" t="inlineStr">
+        <is>
+          <t>16 #7</t>
+        </is>
+      </c>
+      <c r="AL247" t="inlineStr">
+        <is>
+          <t>12 #6</t>
+        </is>
+      </c>
+      <c r="AM247" t="inlineStr">
+        <is>
+          <t>12 #6</t>
+        </is>
+      </c>
+      <c r="AN247" t="inlineStr">
+        <is>
+          <t>12 #6</t>
+        </is>
+      </c>
+      <c r="AO247" t="inlineStr">
+        <is>
+          <t>12 #6</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="B248" t="inlineStr">
@@ -2550,12 +8430,152 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>N+300@N+200</t>
+          <t>N+200@N+300</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
           <t>b x h</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>0.4x0.5</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>0.4x0.5</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>0.4x0.5</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>0.65x1.5</t>
+        </is>
+      </c>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>0.5x1.0</t>
+        </is>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>0.5x1.0</t>
+        </is>
+      </c>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>0.65x1.0</t>
+        </is>
+      </c>
+      <c r="M254" t="inlineStr">
+        <is>
+          <t>0.5x1.0</t>
+        </is>
+      </c>
+      <c r="N254" t="inlineStr">
+        <is>
+          <t>0.5x1.0</t>
+        </is>
+      </c>
+      <c r="O254" t="inlineStr">
+        <is>
+          <t>0.65x1.5</t>
+        </is>
+      </c>
+      <c r="P254" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="Q254" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="R254" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="S254" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="U254" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="V254" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="W254" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="AF254" t="inlineStr">
+        <is>
+          <t>0.4x0.5</t>
+        </is>
+      </c>
+      <c r="AG254" t="inlineStr">
+        <is>
+          <t>0.4x0.5</t>
+        </is>
+      </c>
+      <c r="AH254" t="inlineStr">
+        <is>
+          <t>0.4x0.5</t>
+        </is>
+      </c>
+      <c r="AI254" t="inlineStr">
+        <is>
+          <t>0.4x0.5</t>
+        </is>
+      </c>
+      <c r="AJ254" t="inlineStr">
+        <is>
+          <t>0.4x0.8</t>
+        </is>
+      </c>
+      <c r="AL254" t="inlineStr">
+        <is>
+          <t>0.4x0.5</t>
+        </is>
+      </c>
+      <c r="AM254" t="inlineStr">
+        <is>
+          <t>0.4x0.5</t>
+        </is>
+      </c>
+      <c r="AN254" t="inlineStr">
+        <is>
+          <t>0.4x0.5</t>
+        </is>
+      </c>
+      <c r="AO254" t="inlineStr">
+        <is>
+          <t>0.4x0.5</t>
         </is>
       </c>
     </row>
@@ -2565,6 +8585,146 @@
           <t>f'c</t>
         </is>
       </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>7500psi</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>7500psi</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>7500psi</t>
+        </is>
+      </c>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>7500psi</t>
+        </is>
+      </c>
+      <c r="M255" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="N255" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="O255" t="inlineStr">
+        <is>
+          <t>7500psi</t>
+        </is>
+      </c>
+      <c r="P255" t="inlineStr">
+        <is>
+          <t>7500psi</t>
+        </is>
+      </c>
+      <c r="Q255" t="inlineStr">
+        <is>
+          <t>7500psi</t>
+        </is>
+      </c>
+      <c r="R255" t="inlineStr">
+        <is>
+          <t>7500psi</t>
+        </is>
+      </c>
+      <c r="S255" t="inlineStr">
+        <is>
+          <t>7500psi</t>
+        </is>
+      </c>
+      <c r="U255" t="inlineStr">
+        <is>
+          <t>7500psi</t>
+        </is>
+      </c>
+      <c r="V255" t="inlineStr">
+        <is>
+          <t>7500psi</t>
+        </is>
+      </c>
+      <c r="W255" t="inlineStr">
+        <is>
+          <t>7500psi</t>
+        </is>
+      </c>
+      <c r="AF255" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="AG255" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="AH255" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="AI255" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="AJ255" t="inlineStr">
+        <is>
+          <t>6000Psi</t>
+        </is>
+      </c>
+      <c r="AL255" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="AM255" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="AN255" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="AO255" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="B256" t="inlineStr">
@@ -2572,6 +8732,146 @@
           <t>As</t>
         </is>
       </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>18 #9</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>12 #6</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>12 #6</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>12 #6</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>18 #9</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>24 #9</t>
+        </is>
+      </c>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>18 #6</t>
+        </is>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>18 #6</t>
+        </is>
+      </c>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>24 #10</t>
+        </is>
+      </c>
+      <c r="M256" t="inlineStr">
+        <is>
+          <t>18 #6</t>
+        </is>
+      </c>
+      <c r="N256" t="inlineStr">
+        <is>
+          <t>18 #6</t>
+        </is>
+      </c>
+      <c r="O256" t="inlineStr">
+        <is>
+          <t>24 #9</t>
+        </is>
+      </c>
+      <c r="P256" t="inlineStr">
+        <is>
+          <t>18 #9</t>
+        </is>
+      </c>
+      <c r="Q256" t="inlineStr">
+        <is>
+          <t>18 #9</t>
+        </is>
+      </c>
+      <c r="R256" t="inlineStr">
+        <is>
+          <t>18 #9</t>
+        </is>
+      </c>
+      <c r="S256" t="inlineStr">
+        <is>
+          <t>18 #9</t>
+        </is>
+      </c>
+      <c r="U256" t="inlineStr">
+        <is>
+          <t>18 #9</t>
+        </is>
+      </c>
+      <c r="V256" t="inlineStr">
+        <is>
+          <t>18 #9</t>
+        </is>
+      </c>
+      <c r="W256" t="inlineStr">
+        <is>
+          <t>18 #9</t>
+        </is>
+      </c>
+      <c r="AF256" t="inlineStr">
+        <is>
+          <t>12 #6</t>
+        </is>
+      </c>
+      <c r="AG256" t="inlineStr">
+        <is>
+          <t>12 #6</t>
+        </is>
+      </c>
+      <c r="AH256" t="inlineStr">
+        <is>
+          <t>12 #6</t>
+        </is>
+      </c>
+      <c r="AI256" t="inlineStr">
+        <is>
+          <t>12 #6</t>
+        </is>
+      </c>
+      <c r="AJ256" t="inlineStr">
+        <is>
+          <t>16 #7</t>
+        </is>
+      </c>
+      <c r="AL256" t="inlineStr">
+        <is>
+          <t>12 #6</t>
+        </is>
+      </c>
+      <c r="AM256" t="inlineStr">
+        <is>
+          <t>12 #6</t>
+        </is>
+      </c>
+      <c r="AN256" t="inlineStr">
+        <is>
+          <t>12 #6</t>
+        </is>
+      </c>
+      <c r="AO256" t="inlineStr">
+        <is>
+          <t>12 #6</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="B257" t="inlineStr">
@@ -2618,12 +8918,152 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>N+200@N+100</t>
+          <t>N+100@N+200</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
           <t>b x h</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>0.4x0.5</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>0.4x0.5</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>0.4x0.5</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>0.65x1.5</t>
+        </is>
+      </c>
+      <c r="I263" t="inlineStr">
+        <is>
+          <t>0.5x1.0</t>
+        </is>
+      </c>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>0.5x1.0</t>
+        </is>
+      </c>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>0.65x1.0</t>
+        </is>
+      </c>
+      <c r="M263" t="inlineStr">
+        <is>
+          <t>0.5x1.0</t>
+        </is>
+      </c>
+      <c r="N263" t="inlineStr">
+        <is>
+          <t>0.5x1.0</t>
+        </is>
+      </c>
+      <c r="O263" t="inlineStr">
+        <is>
+          <t>0.65x1.5</t>
+        </is>
+      </c>
+      <c r="P263" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="Q263" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="R263" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="S263" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="U263" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="V263" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="W263" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="AF263" t="inlineStr">
+        <is>
+          <t>0.4x0.5</t>
+        </is>
+      </c>
+      <c r="AG263" t="inlineStr">
+        <is>
+          <t>0.4x0.5</t>
+        </is>
+      </c>
+      <c r="AH263" t="inlineStr">
+        <is>
+          <t>0.4x0.5</t>
+        </is>
+      </c>
+      <c r="AI263" t="inlineStr">
+        <is>
+          <t>0.4x0.5</t>
+        </is>
+      </c>
+      <c r="AJ263" t="inlineStr">
+        <is>
+          <t>0.4x0.8</t>
+        </is>
+      </c>
+      <c r="AL263" t="inlineStr">
+        <is>
+          <t>0.4x0.5</t>
+        </is>
+      </c>
+      <c r="AM263" t="inlineStr">
+        <is>
+          <t>0.4x0.5</t>
+        </is>
+      </c>
+      <c r="AN263" t="inlineStr">
+        <is>
+          <t>0.4x0.5</t>
+        </is>
+      </c>
+      <c r="AO263" t="inlineStr">
+        <is>
+          <t>0.4x0.5</t>
         </is>
       </c>
     </row>
@@ -2633,6 +9073,146 @@
           <t>f'c</t>
         </is>
       </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>8000psi</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>8000psi</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>8000psi</t>
+        </is>
+      </c>
+      <c r="I264" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>8000psi</t>
+        </is>
+      </c>
+      <c r="M264" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="N264" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="O264" t="inlineStr">
+        <is>
+          <t>8000psi</t>
+        </is>
+      </c>
+      <c r="P264" t="inlineStr">
+        <is>
+          <t>8000psi</t>
+        </is>
+      </c>
+      <c r="Q264" t="inlineStr">
+        <is>
+          <t>8000psi</t>
+        </is>
+      </c>
+      <c r="R264" t="inlineStr">
+        <is>
+          <t>8000psi</t>
+        </is>
+      </c>
+      <c r="S264" t="inlineStr">
+        <is>
+          <t>8000psi</t>
+        </is>
+      </c>
+      <c r="U264" t="inlineStr">
+        <is>
+          <t>8000psi</t>
+        </is>
+      </c>
+      <c r="V264" t="inlineStr">
+        <is>
+          <t>8000psi</t>
+        </is>
+      </c>
+      <c r="W264" t="inlineStr">
+        <is>
+          <t>8000psi</t>
+        </is>
+      </c>
+      <c r="AF264" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="AG264" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="AH264" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="AI264" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="AJ264" t="inlineStr">
+        <is>
+          <t>6000Psi</t>
+        </is>
+      </c>
+      <c r="AL264" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="AM264" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="AN264" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="AO264" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="B265" t="inlineStr">
@@ -2640,6 +9220,146 @@
           <t>As</t>
         </is>
       </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>24 #10</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>12 #6</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>12 #6</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>12 #6</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>18 #9</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>24 #9</t>
+        </is>
+      </c>
+      <c r="I265" t="inlineStr">
+        <is>
+          <t>18 #6</t>
+        </is>
+      </c>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>18 #6</t>
+        </is>
+      </c>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>24 #10</t>
+        </is>
+      </c>
+      <c r="M265" t="inlineStr">
+        <is>
+          <t>18 #6</t>
+        </is>
+      </c>
+      <c r="N265" t="inlineStr">
+        <is>
+          <t>18 #6</t>
+        </is>
+      </c>
+      <c r="O265" t="inlineStr">
+        <is>
+          <t>24 #9</t>
+        </is>
+      </c>
+      <c r="P265" t="inlineStr">
+        <is>
+          <t>18 #9</t>
+        </is>
+      </c>
+      <c r="Q265" t="inlineStr">
+        <is>
+          <t>24 #9</t>
+        </is>
+      </c>
+      <c r="R265" t="inlineStr">
+        <is>
+          <t>24 #9</t>
+        </is>
+      </c>
+      <c r="S265" t="inlineStr">
+        <is>
+          <t>24 #9</t>
+        </is>
+      </c>
+      <c r="U265" t="inlineStr">
+        <is>
+          <t>24 #9</t>
+        </is>
+      </c>
+      <c r="V265" t="inlineStr">
+        <is>
+          <t>24 #9</t>
+        </is>
+      </c>
+      <c r="W265" t="inlineStr">
+        <is>
+          <t>18 #9</t>
+        </is>
+      </c>
+      <c r="AF265" t="inlineStr">
+        <is>
+          <t>12 #6</t>
+        </is>
+      </c>
+      <c r="AG265" t="inlineStr">
+        <is>
+          <t>12 #6</t>
+        </is>
+      </c>
+      <c r="AH265" t="inlineStr">
+        <is>
+          <t>12 #6</t>
+        </is>
+      </c>
+      <c r="AI265" t="inlineStr">
+        <is>
+          <t>12 #6</t>
+        </is>
+      </c>
+      <c r="AJ265" t="inlineStr">
+        <is>
+          <t>16 #7</t>
+        </is>
+      </c>
+      <c r="AL265" t="inlineStr">
+        <is>
+          <t>12 #6</t>
+        </is>
+      </c>
+      <c r="AM265" t="inlineStr">
+        <is>
+          <t>12 #6</t>
+        </is>
+      </c>
+      <c r="AN265" t="inlineStr">
+        <is>
+          <t>12 #6</t>
+        </is>
+      </c>
+      <c r="AO265" t="inlineStr">
+        <is>
+          <t>12 #6</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="B266" t="inlineStr">
@@ -2686,12 +9406,157 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>N+100@N+050</t>
+          <t>N+050@N+100</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
           <t>b x h</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>0.4x0.5</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>0.4x0.5</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>0.4x0.5</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>0.65x1.5</t>
+        </is>
+      </c>
+      <c r="I272" t="inlineStr">
+        <is>
+          <t>0.5x1.0</t>
+        </is>
+      </c>
+      <c r="J272" t="inlineStr">
+        <is>
+          <t>0.5x1.0</t>
+        </is>
+      </c>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>0.65x1.0</t>
+        </is>
+      </c>
+      <c r="M272" t="inlineStr">
+        <is>
+          <t>0.5x1.0</t>
+        </is>
+      </c>
+      <c r="N272" t="inlineStr">
+        <is>
+          <t>0.5x1.0</t>
+        </is>
+      </c>
+      <c r="O272" t="inlineStr">
+        <is>
+          <t>0.65x1.5</t>
+        </is>
+      </c>
+      <c r="P272" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="Q272" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="R272" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="S272" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="U272" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="V272" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="W272" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="Y272" t="inlineStr">
+        <is>
+          <t>0.5x1.0</t>
+        </is>
+      </c>
+      <c r="AF272" t="inlineStr">
+        <is>
+          <t>0.4x0.5</t>
+        </is>
+      </c>
+      <c r="AG272" t="inlineStr">
+        <is>
+          <t>0.4x0.5</t>
+        </is>
+      </c>
+      <c r="AH272" t="inlineStr">
+        <is>
+          <t>0.4x0.5</t>
+        </is>
+      </c>
+      <c r="AI272" t="inlineStr">
+        <is>
+          <t>0.4x0.5</t>
+        </is>
+      </c>
+      <c r="AJ272" t="inlineStr">
+        <is>
+          <t>0.4x0.8</t>
+        </is>
+      </c>
+      <c r="AL272" t="inlineStr">
+        <is>
+          <t>0.4x0.5</t>
+        </is>
+      </c>
+      <c r="AM272" t="inlineStr">
+        <is>
+          <t>0.4x0.5</t>
+        </is>
+      </c>
+      <c r="AN272" t="inlineStr">
+        <is>
+          <t>0.4x0.5</t>
+        </is>
+      </c>
+      <c r="AO272" t="inlineStr">
+        <is>
+          <t>0.4x0.5</t>
         </is>
       </c>
     </row>
@@ -2701,6 +9566,151 @@
           <t>f'c</t>
         </is>
       </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>8000psi</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>8000psi</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>8000psi</t>
+        </is>
+      </c>
+      <c r="I273" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="J273" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>8000psi</t>
+        </is>
+      </c>
+      <c r="M273" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="N273" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="O273" t="inlineStr">
+        <is>
+          <t>8000psi</t>
+        </is>
+      </c>
+      <c r="P273" t="inlineStr">
+        <is>
+          <t>8000psi</t>
+        </is>
+      </c>
+      <c r="Q273" t="inlineStr">
+        <is>
+          <t>8000psi</t>
+        </is>
+      </c>
+      <c r="R273" t="inlineStr">
+        <is>
+          <t>8000psi</t>
+        </is>
+      </c>
+      <c r="S273" t="inlineStr">
+        <is>
+          <t>8000psi</t>
+        </is>
+      </c>
+      <c r="U273" t="inlineStr">
+        <is>
+          <t>8000psi</t>
+        </is>
+      </c>
+      <c r="V273" t="inlineStr">
+        <is>
+          <t>8000psi</t>
+        </is>
+      </c>
+      <c r="W273" t="inlineStr">
+        <is>
+          <t>8000psi</t>
+        </is>
+      </c>
+      <c r="Y273" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="AF273" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="AG273" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="AH273" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="AI273" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="AJ273" t="inlineStr">
+        <is>
+          <t>6000Psi</t>
+        </is>
+      </c>
+      <c r="AL273" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="AM273" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="AN273" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="AO273" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="B274" t="inlineStr">
@@ -2708,6 +9718,151 @@
           <t>As</t>
         </is>
       </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>24 #10</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>12 #6</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>12 #6</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>12 #6</t>
+        </is>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>18 #9</t>
+        </is>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>24 #9</t>
+        </is>
+      </c>
+      <c r="I274" t="inlineStr">
+        <is>
+          <t>18 #6</t>
+        </is>
+      </c>
+      <c r="J274" t="inlineStr">
+        <is>
+          <t>18 #6</t>
+        </is>
+      </c>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>24 #10</t>
+        </is>
+      </c>
+      <c r="M274" t="inlineStr">
+        <is>
+          <t>18 #6</t>
+        </is>
+      </c>
+      <c r="N274" t="inlineStr">
+        <is>
+          <t>18 #6</t>
+        </is>
+      </c>
+      <c r="O274" t="inlineStr">
+        <is>
+          <t>24 #9</t>
+        </is>
+      </c>
+      <c r="P274" t="inlineStr">
+        <is>
+          <t>18 #9</t>
+        </is>
+      </c>
+      <c r="Q274" t="inlineStr">
+        <is>
+          <t>24 #9</t>
+        </is>
+      </c>
+      <c r="R274" t="inlineStr">
+        <is>
+          <t>24 #9</t>
+        </is>
+      </c>
+      <c r="S274" t="inlineStr">
+        <is>
+          <t>24 #9</t>
+        </is>
+      </c>
+      <c r="U274" t="inlineStr">
+        <is>
+          <t>24 #9</t>
+        </is>
+      </c>
+      <c r="V274" t="inlineStr">
+        <is>
+          <t>24 #9</t>
+        </is>
+      </c>
+      <c r="W274" t="inlineStr">
+        <is>
+          <t>18 #9</t>
+        </is>
+      </c>
+      <c r="Y274" t="inlineStr">
+        <is>
+          <t>18 #6</t>
+        </is>
+      </c>
+      <c r="AF274" t="inlineStr">
+        <is>
+          <t>12 #6</t>
+        </is>
+      </c>
+      <c r="AG274" t="inlineStr">
+        <is>
+          <t>12 #6</t>
+        </is>
+      </c>
+      <c r="AH274" t="inlineStr">
+        <is>
+          <t>12 #6</t>
+        </is>
+      </c>
+      <c r="AI274" t="inlineStr">
+        <is>
+          <t>12 #6</t>
+        </is>
+      </c>
+      <c r="AJ274" t="inlineStr">
+        <is>
+          <t>16 #7</t>
+        </is>
+      </c>
+      <c r="AL274" t="inlineStr">
+        <is>
+          <t>12 #6</t>
+        </is>
+      </c>
+      <c r="AM274" t="inlineStr">
+        <is>
+          <t>12 #6</t>
+        </is>
+      </c>
+      <c r="AN274" t="inlineStr">
+        <is>
+          <t>12 #6</t>
+        </is>
+      </c>
+      <c r="AO274" t="inlineStr">
+        <is>
+          <t>12 #6</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="B275" t="inlineStr">
@@ -2754,12 +9909,152 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>N+050@N+000</t>
+          <t>N+000@N+050</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
           <t>b x h</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>0.4x0.5</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>0.4x0.5</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>0.4x0.5</t>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>0.65x1.5</t>
+        </is>
+      </c>
+      <c r="I281" t="inlineStr">
+        <is>
+          <t>0.5x1.0</t>
+        </is>
+      </c>
+      <c r="J281" t="inlineStr">
+        <is>
+          <t>0.5x1.0</t>
+        </is>
+      </c>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>0.65x1.0</t>
+        </is>
+      </c>
+      <c r="M281" t="inlineStr">
+        <is>
+          <t>0.5x1.0</t>
+        </is>
+      </c>
+      <c r="N281" t="inlineStr">
+        <is>
+          <t>0.5x1.0</t>
+        </is>
+      </c>
+      <c r="O281" t="inlineStr">
+        <is>
+          <t>0.65x1.5</t>
+        </is>
+      </c>
+      <c r="P281" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="Q281" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="R281" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="S281" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="U281" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="V281" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="W281" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="AF281" t="inlineStr">
+        <is>
+          <t>0.4x0.5</t>
+        </is>
+      </c>
+      <c r="AG281" t="inlineStr">
+        <is>
+          <t>0.4x0.5</t>
+        </is>
+      </c>
+      <c r="AH281" t="inlineStr">
+        <is>
+          <t>0.4x0.5</t>
+        </is>
+      </c>
+      <c r="AI281" t="inlineStr">
+        <is>
+          <t>0.4x0.5</t>
+        </is>
+      </c>
+      <c r="AJ281" t="inlineStr">
+        <is>
+          <t>0.4x0.8</t>
+        </is>
+      </c>
+      <c r="AL281" t="inlineStr">
+        <is>
+          <t>0.4x0.5</t>
+        </is>
+      </c>
+      <c r="AM281" t="inlineStr">
+        <is>
+          <t>0.4x0.5</t>
+        </is>
+      </c>
+      <c r="AN281" t="inlineStr">
+        <is>
+          <t>0.4x0.5</t>
+        </is>
+      </c>
+      <c r="AO281" t="inlineStr">
+        <is>
+          <t>0.4x0.5</t>
         </is>
       </c>
     </row>
@@ -2769,6 +10064,146 @@
           <t>f'c</t>
         </is>
       </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>8000psi</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>8000psi</t>
+        </is>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>8000psi</t>
+        </is>
+      </c>
+      <c r="I282" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="J282" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>8000psi</t>
+        </is>
+      </c>
+      <c r="M282" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="N282" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="O282" t="inlineStr">
+        <is>
+          <t>8000psi</t>
+        </is>
+      </c>
+      <c r="P282" t="inlineStr">
+        <is>
+          <t>8000psi</t>
+        </is>
+      </c>
+      <c r="Q282" t="inlineStr">
+        <is>
+          <t>8000psi</t>
+        </is>
+      </c>
+      <c r="R282" t="inlineStr">
+        <is>
+          <t>8000psi</t>
+        </is>
+      </c>
+      <c r="S282" t="inlineStr">
+        <is>
+          <t>8000psi</t>
+        </is>
+      </c>
+      <c r="U282" t="inlineStr">
+        <is>
+          <t>8000psi</t>
+        </is>
+      </c>
+      <c r="V282" t="inlineStr">
+        <is>
+          <t>8000psi</t>
+        </is>
+      </c>
+      <c r="W282" t="inlineStr">
+        <is>
+          <t>8000psi</t>
+        </is>
+      </c>
+      <c r="AF282" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="AG282" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="AH282" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="AI282" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="AJ282" t="inlineStr">
+        <is>
+          <t>6000Psi</t>
+        </is>
+      </c>
+      <c r="AL282" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="AM282" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="AN282" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="AO282" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="B283" t="inlineStr">
@@ -2776,6 +10211,146 @@
           <t>As</t>
         </is>
       </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>24 #10</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>12 #6</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>12 #6</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>12 #6</t>
+        </is>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>18 #9</t>
+        </is>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>24 #9</t>
+        </is>
+      </c>
+      <c r="I283" t="inlineStr">
+        <is>
+          <t>18 #6</t>
+        </is>
+      </c>
+      <c r="J283" t="inlineStr">
+        <is>
+          <t>18 #6</t>
+        </is>
+      </c>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>24 #10</t>
+        </is>
+      </c>
+      <c r="M283" t="inlineStr">
+        <is>
+          <t>18 #6</t>
+        </is>
+      </c>
+      <c r="N283" t="inlineStr">
+        <is>
+          <t>18 #6</t>
+        </is>
+      </c>
+      <c r="O283" t="inlineStr">
+        <is>
+          <t>24 #9</t>
+        </is>
+      </c>
+      <c r="P283" t="inlineStr">
+        <is>
+          <t>18 #9</t>
+        </is>
+      </c>
+      <c r="Q283" t="inlineStr">
+        <is>
+          <t>24 #9</t>
+        </is>
+      </c>
+      <c r="R283" t="inlineStr">
+        <is>
+          <t>24 #9</t>
+        </is>
+      </c>
+      <c r="S283" t="inlineStr">
+        <is>
+          <t>24 #9</t>
+        </is>
+      </c>
+      <c r="U283" t="inlineStr">
+        <is>
+          <t>24 #9</t>
+        </is>
+      </c>
+      <c r="V283" t="inlineStr">
+        <is>
+          <t>24 #9</t>
+        </is>
+      </c>
+      <c r="W283" t="inlineStr">
+        <is>
+          <t>18 #9</t>
+        </is>
+      </c>
+      <c r="AF283" t="inlineStr">
+        <is>
+          <t>12 #6</t>
+        </is>
+      </c>
+      <c r="AG283" t="inlineStr">
+        <is>
+          <t>12 #6</t>
+        </is>
+      </c>
+      <c r="AH283" t="inlineStr">
+        <is>
+          <t>12 #6</t>
+        </is>
+      </c>
+      <c r="AI283" t="inlineStr">
+        <is>
+          <t>12 #6</t>
+        </is>
+      </c>
+      <c r="AJ283" t="inlineStr">
+        <is>
+          <t>16 #7</t>
+        </is>
+      </c>
+      <c r="AL283" t="inlineStr">
+        <is>
+          <t>12 #6</t>
+        </is>
+      </c>
+      <c r="AM283" t="inlineStr">
+        <is>
+          <t>12 #6</t>
+        </is>
+      </c>
+      <c r="AN283" t="inlineStr">
+        <is>
+          <t>12 #6</t>
+        </is>
+      </c>
+      <c r="AO283" t="inlineStr">
+        <is>
+          <t>12 #6</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="B284" t="inlineStr">
@@ -2822,12 +10397,177 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>N+000@N-100</t>
+          <t>N-100@N+000</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
           <t>b x h</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>0.4x0.5</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>0.4x0.5</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>0.4x0.5</t>
+        </is>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>0.65x1.5</t>
+        </is>
+      </c>
+      <c r="I290" t="inlineStr">
+        <is>
+          <t>0.5x1.0</t>
+        </is>
+      </c>
+      <c r="J290" t="inlineStr">
+        <is>
+          <t>0.5x1.0</t>
+        </is>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>0.65x1.0</t>
+        </is>
+      </c>
+      <c r="L290" t="inlineStr">
+        <is>
+          <t>0.65x1.0</t>
+        </is>
+      </c>
+      <c r="M290" t="inlineStr">
+        <is>
+          <t>0.5x1.0</t>
+        </is>
+      </c>
+      <c r="N290" t="inlineStr">
+        <is>
+          <t>0.5x1.0</t>
+        </is>
+      </c>
+      <c r="O290" t="inlineStr">
+        <is>
+          <t>0.65x1.5</t>
+        </is>
+      </c>
+      <c r="P290" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="Q290" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="R290" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="S290" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="T290" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="U290" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="V290" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="W290" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="AF290" t="inlineStr">
+        <is>
+          <t>0.4x0.5</t>
+        </is>
+      </c>
+      <c r="AG290" t="inlineStr">
+        <is>
+          <t>0.4x0.5</t>
+        </is>
+      </c>
+      <c r="AH290" t="inlineStr">
+        <is>
+          <t>0.4x0.5</t>
+        </is>
+      </c>
+      <c r="AI290" t="inlineStr">
+        <is>
+          <t>0.4x0.5</t>
+        </is>
+      </c>
+      <c r="AJ290" t="inlineStr">
+        <is>
+          <t>0.4x0.8</t>
+        </is>
+      </c>
+      <c r="AK290" t="inlineStr">
+        <is>
+          <t>0.4x0.5</t>
+        </is>
+      </c>
+      <c r="AL290" t="inlineStr">
+        <is>
+          <t>0.4x0.5</t>
+        </is>
+      </c>
+      <c r="AM290" t="inlineStr">
+        <is>
+          <t>0.4x0.5</t>
+        </is>
+      </c>
+      <c r="AN290" t="inlineStr">
+        <is>
+          <t>0.4x0.5</t>
+        </is>
+      </c>
+      <c r="AO290" t="inlineStr">
+        <is>
+          <t>0.4x0.5</t>
+        </is>
+      </c>
+      <c r="AP290" t="inlineStr">
+        <is>
+          <t>0.4x0.5</t>
+        </is>
+      </c>
+      <c r="AQ290" t="inlineStr">
+        <is>
+          <t>0.4x0.5</t>
         </is>
       </c>
     </row>
@@ -2837,6 +10577,171 @@
           <t>f'c</t>
         </is>
       </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>8000psi</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>8000psi</t>
+        </is>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>8000psi</t>
+        </is>
+      </c>
+      <c r="I291" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="J291" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>8000psi</t>
+        </is>
+      </c>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>8000psi</t>
+        </is>
+      </c>
+      <c r="M291" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="N291" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="O291" t="inlineStr">
+        <is>
+          <t>8000psi</t>
+        </is>
+      </c>
+      <c r="P291" t="inlineStr">
+        <is>
+          <t>8000psi</t>
+        </is>
+      </c>
+      <c r="Q291" t="inlineStr">
+        <is>
+          <t>8000psi</t>
+        </is>
+      </c>
+      <c r="R291" t="inlineStr">
+        <is>
+          <t>8000psi</t>
+        </is>
+      </c>
+      <c r="S291" t="inlineStr">
+        <is>
+          <t>8000psi</t>
+        </is>
+      </c>
+      <c r="T291" t="inlineStr">
+        <is>
+          <t>8000psi</t>
+        </is>
+      </c>
+      <c r="U291" t="inlineStr">
+        <is>
+          <t>8000psi</t>
+        </is>
+      </c>
+      <c r="V291" t="inlineStr">
+        <is>
+          <t>8000psi</t>
+        </is>
+      </c>
+      <c r="W291" t="inlineStr">
+        <is>
+          <t>8000psi</t>
+        </is>
+      </c>
+      <c r="AF291" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="AG291" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="AH291" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="AI291" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="AJ291" t="inlineStr">
+        <is>
+          <t>6000Psi</t>
+        </is>
+      </c>
+      <c r="AK291" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="AL291" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="AM291" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="AN291" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="AO291" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="AP291" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="AQ291" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="B292" t="inlineStr">
@@ -2844,6 +10749,171 @@
           <t>As</t>
         </is>
       </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>24 #10</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>12 #6</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>12 #6</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>12 #6</t>
+        </is>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>18 #9</t>
+        </is>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>24 #9</t>
+        </is>
+      </c>
+      <c r="I292" t="inlineStr">
+        <is>
+          <t>18 #6</t>
+        </is>
+      </c>
+      <c r="J292" t="inlineStr">
+        <is>
+          <t>18 #6</t>
+        </is>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>24 #10</t>
+        </is>
+      </c>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>24 #10</t>
+        </is>
+      </c>
+      <c r="M292" t="inlineStr">
+        <is>
+          <t>18 #6</t>
+        </is>
+      </c>
+      <c r="N292" t="inlineStr">
+        <is>
+          <t>18 #6</t>
+        </is>
+      </c>
+      <c r="O292" t="inlineStr">
+        <is>
+          <t>24 #9</t>
+        </is>
+      </c>
+      <c r="P292" t="inlineStr">
+        <is>
+          <t>18 #9</t>
+        </is>
+      </c>
+      <c r="Q292" t="inlineStr">
+        <is>
+          <t>24 #9</t>
+        </is>
+      </c>
+      <c r="R292" t="inlineStr">
+        <is>
+          <t>24 #9</t>
+        </is>
+      </c>
+      <c r="S292" t="inlineStr">
+        <is>
+          <t>24 #9</t>
+        </is>
+      </c>
+      <c r="T292" t="inlineStr">
+        <is>
+          <t>18 #9</t>
+        </is>
+      </c>
+      <c r="U292" t="inlineStr">
+        <is>
+          <t>24 #9</t>
+        </is>
+      </c>
+      <c r="V292" t="inlineStr">
+        <is>
+          <t>24 #9</t>
+        </is>
+      </c>
+      <c r="W292" t="inlineStr">
+        <is>
+          <t>18 #9</t>
+        </is>
+      </c>
+      <c r="AF292" t="inlineStr">
+        <is>
+          <t>12 #6</t>
+        </is>
+      </c>
+      <c r="AG292" t="inlineStr">
+        <is>
+          <t>12 #6</t>
+        </is>
+      </c>
+      <c r="AH292" t="inlineStr">
+        <is>
+          <t>12 #6</t>
+        </is>
+      </c>
+      <c r="AI292" t="inlineStr">
+        <is>
+          <t>12 #6</t>
+        </is>
+      </c>
+      <c r="AJ292" t="inlineStr">
+        <is>
+          <t>16 #7</t>
+        </is>
+      </c>
+      <c r="AK292" t="inlineStr">
+        <is>
+          <t>12 #6</t>
+        </is>
+      </c>
+      <c r="AL292" t="inlineStr">
+        <is>
+          <t>12 #6</t>
+        </is>
+      </c>
+      <c r="AM292" t="inlineStr">
+        <is>
+          <t>12 #6</t>
+        </is>
+      </c>
+      <c r="AN292" t="inlineStr">
+        <is>
+          <t>12 #6</t>
+        </is>
+      </c>
+      <c r="AO292" t="inlineStr">
+        <is>
+          <t>12 #6</t>
+        </is>
+      </c>
+      <c r="AP292" t="inlineStr">
+        <is>
+          <t>12 #6</t>
+        </is>
+      </c>
+      <c r="AQ292" t="inlineStr">
+        <is>
+          <t>12 #6</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="B293" t="inlineStr">
@@ -2890,12 +10960,52 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>N-100@N-200</t>
+          <t>N-200@N-100</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
           <t>b x h</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>0.4x0.5</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>0.4x0.5</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>0.4x0.5</t>
+        </is>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>0.5x1.5</t>
+        </is>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>0.65x1.5</t>
+        </is>
+      </c>
+      <c r="I299" t="inlineStr">
+        <is>
+          <t>0.5x1.0</t>
+        </is>
+      </c>
+      <c r="J299" t="inlineStr">
+        <is>
+          <t>0.5x1.0</t>
         </is>
       </c>
     </row>
@@ -2905,11 +11015,91 @@
           <t>f'c</t>
         </is>
       </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>8000psi</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>8000psi</t>
+        </is>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>8000psi</t>
+        </is>
+      </c>
+      <c r="I300" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
+      <c r="J300" t="inlineStr">
+        <is>
+          <t>4000Psi</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
           <t>As</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>24 #10</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>12 #6</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>12 #6</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>12 #6</t>
+        </is>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>18 #9</t>
+        </is>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>24 #9</t>
+        </is>
+      </c>
+      <c r="I301" t="inlineStr">
+        <is>
+          <t>18 #6</t>
+        </is>
+      </c>
+      <c r="J301" t="inlineStr">
+        <is>
+          <t>18 #6</t>
         </is>
       </c>
     </row>

--- a/cuadro_columnas.xlsx
+++ b/cuadro_columnas.xlsx
@@ -936,6 +936,36 @@
           <t>Detalle</t>
         </is>
       </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1214,6 +1244,76 @@
           <t>Detalle</t>
         </is>
       </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>DC-5</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>DC-5</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1492,6 +1592,76 @@
           <t>Detalle</t>
         </is>
       </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>DC-5</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>DC-5</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1770,6 +1940,76 @@
           <t>Detalle</t>
         </is>
       </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>DC-5</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>DC-5</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2048,6 +2288,76 @@
           <t>Detalle</t>
         </is>
       </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>DC-5</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>DC-5</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2326,6 +2636,76 @@
           <t>Detalle</t>
         </is>
       </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>DC-5</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>DC-5</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2604,6 +2984,76 @@
           <t>Detalle</t>
         </is>
       </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>DC-9</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>DC-9</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="T82" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="W82" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2882,6 +3332,76 @@
           <t>Detalle</t>
         </is>
       </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>DC-9</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>DC-9</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="T91" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="W91" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -3160,6 +3680,76 @@
           <t>Detalle</t>
         </is>
       </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>DC-9</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>DC-9</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="T100" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="W100" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -3438,6 +4028,76 @@
           <t>Detalle</t>
         </is>
       </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>DC-9</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>DC-9</t>
+        </is>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="R109" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="T109" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="U109" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="V109" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="W109" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -3716,6 +4376,76 @@
           <t>Detalle</t>
         </is>
       </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>DC-9</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>DC-9</t>
+        </is>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="R118" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="S118" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="T118" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="U118" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="V118" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="W118" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -3994,6 +4724,76 @@
           <t>Detalle</t>
         </is>
       </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>DC-9</t>
+        </is>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>DC-9</t>
+        </is>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="P127" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="Q127" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="R127" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="S127" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="T127" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="U127" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="V127" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="W127" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -4272,6 +5072,76 @@
           <t>Detalle</t>
         </is>
       </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>DC-9</t>
+        </is>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>DC-9</t>
+        </is>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="P136" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="Q136" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="R136" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="S136" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="T136" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="U136" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="V136" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="W136" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -4550,6 +5420,76 @@
           <t>Detalle</t>
         </is>
       </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>DC-9</t>
+        </is>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>DC-9</t>
+        </is>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="Q145" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="R145" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="S145" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="T145" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="U145" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="V145" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="W145" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -4828,6 +5768,76 @@
           <t>Detalle</t>
         </is>
       </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>DC-9</t>
+        </is>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>DC-9</t>
+        </is>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="Q154" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="R154" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="S154" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="T154" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="U154" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="V154" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="W154" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -5106,6 +6116,76 @@
           <t>Detalle</t>
         </is>
       </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>DC-14</t>
+        </is>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>DC-14</t>
+        </is>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="P163" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="Q163" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="R163" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="S163" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="T163" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="U163" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="V163" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="W163" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -5384,6 +6464,76 @@
           <t>Detalle</t>
         </is>
       </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>DC-14</t>
+        </is>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>DC-14</t>
+        </is>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="P172" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="Q172" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="R172" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="S172" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="T172" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="U172" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="V172" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="W172" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -5662,6 +6812,76 @@
           <t>Detalle</t>
         </is>
       </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>DC-14</t>
+        </is>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>DC-14</t>
+        </is>
+      </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="P181" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="Q181" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="R181" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="S181" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="T181" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="U181" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="V181" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="W181" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -5940,6 +7160,76 @@
           <t>Detalle</t>
         </is>
       </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>DC-13</t>
+        </is>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>DC-13</t>
+        </is>
+      </c>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="P190" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="Q190" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="R190" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="S190" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="T190" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="U190" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="V190" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="W190" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -6218,6 +7508,76 @@
           <t>Detalle</t>
         </is>
       </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>DC-13</t>
+        </is>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>DC-13</t>
+        </is>
+      </c>
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="P199" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="Q199" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="R199" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="S199" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="T199" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="U199" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="V199" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="W199" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -6496,6 +7856,76 @@
           <t>Detalle</t>
         </is>
       </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>DC-13</t>
+        </is>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>DC-13</t>
+        </is>
+      </c>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="P208" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="Q208" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="R208" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="S208" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="T208" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="U208" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="V208" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="W208" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -6774,6 +8204,76 @@
           <t>Detalle</t>
         </is>
       </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>DC-10</t>
+        </is>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>DC-12</t>
+        </is>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>DC-12</t>
+        </is>
+      </c>
+      <c r="O217" t="inlineStr">
+        <is>
+          <t>DC-10</t>
+        </is>
+      </c>
+      <c r="P217" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="Q217" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="R217" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="S217" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="T217" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="U217" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="V217" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="W217" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -7052,6 +8552,76 @@
           <t>Detalle</t>
         </is>
       </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>DC-10</t>
+        </is>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>DC-12</t>
+        </is>
+      </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>DC-12</t>
+        </is>
+      </c>
+      <c r="O226" t="inlineStr">
+        <is>
+          <t>DC-10</t>
+        </is>
+      </c>
+      <c r="P226" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="Q226" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="R226" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="S226" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="T226" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="U226" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="V226" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="W226" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -7330,6 +8900,76 @@
           <t>Detalle</t>
         </is>
       </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>DC-10</t>
+        </is>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>DC-12</t>
+        </is>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>DC-12</t>
+        </is>
+      </c>
+      <c r="O235" t="inlineStr">
+        <is>
+          <t>DC-10</t>
+        </is>
+      </c>
+      <c r="P235" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="Q235" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="R235" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="S235" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="T235" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="U235" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="V235" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
+      <c r="W235" t="inlineStr">
+        <is>
+          <t>DC-11</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -7938,6 +9578,186 @@
           <t>Detalle</t>
         </is>
       </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>DC-3</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>DC-2</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>DC-2</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>DC-2</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>DC-3</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>DC-4</t>
+        </is>
+      </c>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>DC-5</t>
+        </is>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>DC-5</t>
+        </is>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>DC-6</t>
+        </is>
+      </c>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>DC-6</t>
+        </is>
+      </c>
+      <c r="M244" t="inlineStr">
+        <is>
+          <t>DC-5</t>
+        </is>
+      </c>
+      <c r="N244" t="inlineStr">
+        <is>
+          <t>DC-5</t>
+        </is>
+      </c>
+      <c r="O244" t="inlineStr">
+        <is>
+          <t>DC-4</t>
+        </is>
+      </c>
+      <c r="P244" t="inlineStr">
+        <is>
+          <t>DC-3</t>
+        </is>
+      </c>
+      <c r="Q244" t="inlineStr">
+        <is>
+          <t>DC-3</t>
+        </is>
+      </c>
+      <c r="R244" t="inlineStr">
+        <is>
+          <t>DC-3</t>
+        </is>
+      </c>
+      <c r="S244" t="inlineStr">
+        <is>
+          <t>DC-3</t>
+        </is>
+      </c>
+      <c r="T244" t="inlineStr">
+        <is>
+          <t>DC-3</t>
+        </is>
+      </c>
+      <c r="U244" t="inlineStr">
+        <is>
+          <t>DC-3</t>
+        </is>
+      </c>
+      <c r="V244" t="inlineStr">
+        <is>
+          <t>DC-3</t>
+        </is>
+      </c>
+      <c r="W244" t="inlineStr">
+        <is>
+          <t>DC-3</t>
+        </is>
+      </c>
+      <c r="AB244" t="inlineStr">
+        <is>
+          <t>DC-5</t>
+        </is>
+      </c>
+      <c r="AC244" t="inlineStr">
+        <is>
+          <t>DC-5</t>
+        </is>
+      </c>
+      <c r="AD244" t="inlineStr">
+        <is>
+          <t>DC-5</t>
+        </is>
+      </c>
+      <c r="AE244" t="inlineStr">
+        <is>
+          <t>DC-5</t>
+        </is>
+      </c>
+      <c r="AF244" t="inlineStr">
+        <is>
+          <t>DC-2</t>
+        </is>
+      </c>
+      <c r="AG244" t="inlineStr">
+        <is>
+          <t>DC-2</t>
+        </is>
+      </c>
+      <c r="AH244" t="inlineStr">
+        <is>
+          <t>DC-2</t>
+        </is>
+      </c>
+      <c r="AI244" t="inlineStr">
+        <is>
+          <t>DC-2</t>
+        </is>
+      </c>
+      <c r="AJ244" t="inlineStr">
+        <is>
+          <t>DC-8</t>
+        </is>
+      </c>
+      <c r="AL244" t="inlineStr">
+        <is>
+          <t>DC-2</t>
+        </is>
+      </c>
+      <c r="AM244" t="inlineStr">
+        <is>
+          <t>DC-2</t>
+        </is>
+      </c>
+      <c r="AN244" t="inlineStr">
+        <is>
+          <t>DC-2</t>
+        </is>
+      </c>
+      <c r="AO244" t="inlineStr">
+        <is>
+          <t>DC-2</t>
+        </is>
+      </c>
+      <c r="AP244" t="inlineStr">
+        <is>
+          <t>DC-2</t>
+        </is>
+      </c>
+      <c r="AQ244" t="inlineStr">
+        <is>
+          <t>DC-2</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -8426,6 +10246,146 @@
           <t>Detalle</t>
         </is>
       </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>DC-3</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>DC-2</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>DC-2</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>DC-2</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>DC-3</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>DC-4</t>
+        </is>
+      </c>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t>DC-5</t>
+        </is>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>DC-5</t>
+        </is>
+      </c>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>DC-6</t>
+        </is>
+      </c>
+      <c r="M253" t="inlineStr">
+        <is>
+          <t>DC-5</t>
+        </is>
+      </c>
+      <c r="N253" t="inlineStr">
+        <is>
+          <t>DC-5</t>
+        </is>
+      </c>
+      <c r="O253" t="inlineStr">
+        <is>
+          <t>DC-4</t>
+        </is>
+      </c>
+      <c r="P253" t="inlineStr">
+        <is>
+          <t>DC-3</t>
+        </is>
+      </c>
+      <c r="Q253" t="inlineStr">
+        <is>
+          <t>DC-3</t>
+        </is>
+      </c>
+      <c r="R253" t="inlineStr">
+        <is>
+          <t>DC-3</t>
+        </is>
+      </c>
+      <c r="S253" t="inlineStr">
+        <is>
+          <t>DC-3</t>
+        </is>
+      </c>
+      <c r="U253" t="inlineStr">
+        <is>
+          <t>DC-3</t>
+        </is>
+      </c>
+      <c r="V253" t="inlineStr">
+        <is>
+          <t>DC-3</t>
+        </is>
+      </c>
+      <c r="W253" t="inlineStr">
+        <is>
+          <t>DC-3</t>
+        </is>
+      </c>
+      <c r="AF253" t="inlineStr">
+        <is>
+          <t>DC-2</t>
+        </is>
+      </c>
+      <c r="AG253" t="inlineStr">
+        <is>
+          <t>DC-2</t>
+        </is>
+      </c>
+      <c r="AH253" t="inlineStr">
+        <is>
+          <t>DC-2</t>
+        </is>
+      </c>
+      <c r="AI253" t="inlineStr">
+        <is>
+          <t>DC-2</t>
+        </is>
+      </c>
+      <c r="AJ253" t="inlineStr">
+        <is>
+          <t>DC-8</t>
+        </is>
+      </c>
+      <c r="AL253" t="inlineStr">
+        <is>
+          <t>DC-2</t>
+        </is>
+      </c>
+      <c r="AM253" t="inlineStr">
+        <is>
+          <t>DC-2</t>
+        </is>
+      </c>
+      <c r="AN253" t="inlineStr">
+        <is>
+          <t>DC-2</t>
+        </is>
+      </c>
+      <c r="AO253" t="inlineStr">
+        <is>
+          <t>DC-2</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -8914,6 +10874,146 @@
           <t>Detalle</t>
         </is>
       </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>DC-3</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>DC-2</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>DC-2</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>DC-2</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>DC-3</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>DC-4</t>
+        </is>
+      </c>
+      <c r="I262" t="inlineStr">
+        <is>
+          <t>DC-5</t>
+        </is>
+      </c>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>DC-5</t>
+        </is>
+      </c>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>DC-6</t>
+        </is>
+      </c>
+      <c r="M262" t="inlineStr">
+        <is>
+          <t>DC-5</t>
+        </is>
+      </c>
+      <c r="N262" t="inlineStr">
+        <is>
+          <t>DC-5</t>
+        </is>
+      </c>
+      <c r="O262" t="inlineStr">
+        <is>
+          <t>DC-4</t>
+        </is>
+      </c>
+      <c r="P262" t="inlineStr">
+        <is>
+          <t>DC-3</t>
+        </is>
+      </c>
+      <c r="Q262" t="inlineStr">
+        <is>
+          <t>DC-3</t>
+        </is>
+      </c>
+      <c r="R262" t="inlineStr">
+        <is>
+          <t>DC-3</t>
+        </is>
+      </c>
+      <c r="S262" t="inlineStr">
+        <is>
+          <t>DC-3</t>
+        </is>
+      </c>
+      <c r="U262" t="inlineStr">
+        <is>
+          <t>DC-3</t>
+        </is>
+      </c>
+      <c r="V262" t="inlineStr">
+        <is>
+          <t>DC-3</t>
+        </is>
+      </c>
+      <c r="W262" t="inlineStr">
+        <is>
+          <t>DC-3</t>
+        </is>
+      </c>
+      <c r="AF262" t="inlineStr">
+        <is>
+          <t>DC-2</t>
+        </is>
+      </c>
+      <c r="AG262" t="inlineStr">
+        <is>
+          <t>DC-2</t>
+        </is>
+      </c>
+      <c r="AH262" t="inlineStr">
+        <is>
+          <t>DC-2</t>
+        </is>
+      </c>
+      <c r="AI262" t="inlineStr">
+        <is>
+          <t>DC-2</t>
+        </is>
+      </c>
+      <c r="AJ262" t="inlineStr">
+        <is>
+          <t>DC-8</t>
+        </is>
+      </c>
+      <c r="AL262" t="inlineStr">
+        <is>
+          <t>DC-2</t>
+        </is>
+      </c>
+      <c r="AM262" t="inlineStr">
+        <is>
+          <t>DC-2</t>
+        </is>
+      </c>
+      <c r="AN262" t="inlineStr">
+        <is>
+          <t>DC-2</t>
+        </is>
+      </c>
+      <c r="AO262" t="inlineStr">
+        <is>
+          <t>DC-2</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -9402,6 +11502,146 @@
           <t>Detalle</t>
         </is>
       </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>DC-1</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>DC-2</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>DC-2</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>DC-2</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>DC-3</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>DC-4</t>
+        </is>
+      </c>
+      <c r="I271" t="inlineStr">
+        <is>
+          <t>DC-5</t>
+        </is>
+      </c>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>DC-5</t>
+        </is>
+      </c>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>DC-6</t>
+        </is>
+      </c>
+      <c r="M271" t="inlineStr">
+        <is>
+          <t>DC-5</t>
+        </is>
+      </c>
+      <c r="N271" t="inlineStr">
+        <is>
+          <t>DC-5</t>
+        </is>
+      </c>
+      <c r="O271" t="inlineStr">
+        <is>
+          <t>DC-4</t>
+        </is>
+      </c>
+      <c r="P271" t="inlineStr">
+        <is>
+          <t>DC-3</t>
+        </is>
+      </c>
+      <c r="Q271" t="inlineStr">
+        <is>
+          <t>DC-7</t>
+        </is>
+      </c>
+      <c r="R271" t="inlineStr">
+        <is>
+          <t>DC-7</t>
+        </is>
+      </c>
+      <c r="S271" t="inlineStr">
+        <is>
+          <t>DC-7</t>
+        </is>
+      </c>
+      <c r="U271" t="inlineStr">
+        <is>
+          <t>DC-7</t>
+        </is>
+      </c>
+      <c r="V271" t="inlineStr">
+        <is>
+          <t>DC-7</t>
+        </is>
+      </c>
+      <c r="W271" t="inlineStr">
+        <is>
+          <t>DC-3</t>
+        </is>
+      </c>
+      <c r="AF271" t="inlineStr">
+        <is>
+          <t>DC-2</t>
+        </is>
+      </c>
+      <c r="AG271" t="inlineStr">
+        <is>
+          <t>DC-2</t>
+        </is>
+      </c>
+      <c r="AH271" t="inlineStr">
+        <is>
+          <t>DC-2</t>
+        </is>
+      </c>
+      <c r="AI271" t="inlineStr">
+        <is>
+          <t>DC-2</t>
+        </is>
+      </c>
+      <c r="AJ271" t="inlineStr">
+        <is>
+          <t>DC-8</t>
+        </is>
+      </c>
+      <c r="AL271" t="inlineStr">
+        <is>
+          <t>DC-2</t>
+        </is>
+      </c>
+      <c r="AM271" t="inlineStr">
+        <is>
+          <t>DC-2</t>
+        </is>
+      </c>
+      <c r="AN271" t="inlineStr">
+        <is>
+          <t>DC-2</t>
+        </is>
+      </c>
+      <c r="AO271" t="inlineStr">
+        <is>
+          <t>DC-2</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -9905,6 +12145,151 @@
           <t>Detalle</t>
         </is>
       </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>DC-1</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>DC-2</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>DC-2</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>DC-2</t>
+        </is>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>DC-3</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>DC-4</t>
+        </is>
+      </c>
+      <c r="I280" t="inlineStr">
+        <is>
+          <t>DC-5</t>
+        </is>
+      </c>
+      <c r="J280" t="inlineStr">
+        <is>
+          <t>DC-5</t>
+        </is>
+      </c>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>DC-6</t>
+        </is>
+      </c>
+      <c r="M280" t="inlineStr">
+        <is>
+          <t>DC-5</t>
+        </is>
+      </c>
+      <c r="N280" t="inlineStr">
+        <is>
+          <t>DC-5</t>
+        </is>
+      </c>
+      <c r="O280" t="inlineStr">
+        <is>
+          <t>DC-4</t>
+        </is>
+      </c>
+      <c r="P280" t="inlineStr">
+        <is>
+          <t>DC-3</t>
+        </is>
+      </c>
+      <c r="Q280" t="inlineStr">
+        <is>
+          <t>DC-7</t>
+        </is>
+      </c>
+      <c r="R280" t="inlineStr">
+        <is>
+          <t>DC-7</t>
+        </is>
+      </c>
+      <c r="S280" t="inlineStr">
+        <is>
+          <t>DC-7</t>
+        </is>
+      </c>
+      <c r="U280" t="inlineStr">
+        <is>
+          <t>DC-7</t>
+        </is>
+      </c>
+      <c r="V280" t="inlineStr">
+        <is>
+          <t>DC-7</t>
+        </is>
+      </c>
+      <c r="W280" t="inlineStr">
+        <is>
+          <t>DC-3</t>
+        </is>
+      </c>
+      <c r="Y280" t="inlineStr">
+        <is>
+          <t>DC-5</t>
+        </is>
+      </c>
+      <c r="AF280" t="inlineStr">
+        <is>
+          <t>DC-2</t>
+        </is>
+      </c>
+      <c r="AG280" t="inlineStr">
+        <is>
+          <t>DC-2</t>
+        </is>
+      </c>
+      <c r="AH280" t="inlineStr">
+        <is>
+          <t>DC-2</t>
+        </is>
+      </c>
+      <c r="AI280" t="inlineStr">
+        <is>
+          <t>DC-2</t>
+        </is>
+      </c>
+      <c r="AJ280" t="inlineStr">
+        <is>
+          <t>DC-8</t>
+        </is>
+      </c>
+      <c r="AL280" t="inlineStr">
+        <is>
+          <t>DC-2</t>
+        </is>
+      </c>
+      <c r="AM280" t="inlineStr">
+        <is>
+          <t>DC-2</t>
+        </is>
+      </c>
+      <c r="AN280" t="inlineStr">
+        <is>
+          <t>DC-2</t>
+        </is>
+      </c>
+      <c r="AO280" t="inlineStr">
+        <is>
+          <t>DC-2</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -10393,6 +12778,146 @@
           <t>Detalle</t>
         </is>
       </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>DC-1</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>DC-2</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>DC-2</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>DC-2</t>
+        </is>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>DC-3</t>
+        </is>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>DC-4</t>
+        </is>
+      </c>
+      <c r="I289" t="inlineStr">
+        <is>
+          <t>DC-5</t>
+        </is>
+      </c>
+      <c r="J289" t="inlineStr">
+        <is>
+          <t>DC-5</t>
+        </is>
+      </c>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>DC-6</t>
+        </is>
+      </c>
+      <c r="M289" t="inlineStr">
+        <is>
+          <t>DC-5</t>
+        </is>
+      </c>
+      <c r="N289" t="inlineStr">
+        <is>
+          <t>DC-5</t>
+        </is>
+      </c>
+      <c r="O289" t="inlineStr">
+        <is>
+          <t>DC-4</t>
+        </is>
+      </c>
+      <c r="P289" t="inlineStr">
+        <is>
+          <t>DC-3</t>
+        </is>
+      </c>
+      <c r="Q289" t="inlineStr">
+        <is>
+          <t>DC-7</t>
+        </is>
+      </c>
+      <c r="R289" t="inlineStr">
+        <is>
+          <t>DC-7</t>
+        </is>
+      </c>
+      <c r="S289" t="inlineStr">
+        <is>
+          <t>DC-7</t>
+        </is>
+      </c>
+      <c r="U289" t="inlineStr">
+        <is>
+          <t>DC-7</t>
+        </is>
+      </c>
+      <c r="V289" t="inlineStr">
+        <is>
+          <t>DC-7</t>
+        </is>
+      </c>
+      <c r="W289" t="inlineStr">
+        <is>
+          <t>DC-3</t>
+        </is>
+      </c>
+      <c r="AF289" t="inlineStr">
+        <is>
+          <t>DC-2</t>
+        </is>
+      </c>
+      <c r="AG289" t="inlineStr">
+        <is>
+          <t>DC-2</t>
+        </is>
+      </c>
+      <c r="AH289" t="inlineStr">
+        <is>
+          <t>DC-2</t>
+        </is>
+      </c>
+      <c r="AI289" t="inlineStr">
+        <is>
+          <t>DC-2</t>
+        </is>
+      </c>
+      <c r="AJ289" t="inlineStr">
+        <is>
+          <t>DC-8</t>
+        </is>
+      </c>
+      <c r="AL289" t="inlineStr">
+        <is>
+          <t>DC-2</t>
+        </is>
+      </c>
+      <c r="AM289" t="inlineStr">
+        <is>
+          <t>DC-2</t>
+        </is>
+      </c>
+      <c r="AN289" t="inlineStr">
+        <is>
+          <t>DC-2</t>
+        </is>
+      </c>
+      <c r="AO289" t="inlineStr">
+        <is>
+          <t>DC-2</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -10956,6 +13481,171 @@
           <t>Detalle</t>
         </is>
       </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>DC-1</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>DC-2</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>DC-2</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>DC-2</t>
+        </is>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>DC-3</t>
+        </is>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>DC-4</t>
+        </is>
+      </c>
+      <c r="I298" t="inlineStr">
+        <is>
+          <t>DC-5</t>
+        </is>
+      </c>
+      <c r="J298" t="inlineStr">
+        <is>
+          <t>DC-5</t>
+        </is>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>DC-6</t>
+        </is>
+      </c>
+      <c r="L298" t="inlineStr">
+        <is>
+          <t>DC-6</t>
+        </is>
+      </c>
+      <c r="M298" t="inlineStr">
+        <is>
+          <t>DC-5</t>
+        </is>
+      </c>
+      <c r="N298" t="inlineStr">
+        <is>
+          <t>DC-5</t>
+        </is>
+      </c>
+      <c r="O298" t="inlineStr">
+        <is>
+          <t>DC-4</t>
+        </is>
+      </c>
+      <c r="P298" t="inlineStr">
+        <is>
+          <t>DC-3</t>
+        </is>
+      </c>
+      <c r="Q298" t="inlineStr">
+        <is>
+          <t>DC-7</t>
+        </is>
+      </c>
+      <c r="R298" t="inlineStr">
+        <is>
+          <t>DC-7</t>
+        </is>
+      </c>
+      <c r="S298" t="inlineStr">
+        <is>
+          <t>DC-7</t>
+        </is>
+      </c>
+      <c r="T298" t="inlineStr">
+        <is>
+          <t>DC-3</t>
+        </is>
+      </c>
+      <c r="U298" t="inlineStr">
+        <is>
+          <t>DC-7</t>
+        </is>
+      </c>
+      <c r="V298" t="inlineStr">
+        <is>
+          <t>DC-7</t>
+        </is>
+      </c>
+      <c r="W298" t="inlineStr">
+        <is>
+          <t>DC-3</t>
+        </is>
+      </c>
+      <c r="AF298" t="inlineStr">
+        <is>
+          <t>DC-2</t>
+        </is>
+      </c>
+      <c r="AG298" t="inlineStr">
+        <is>
+          <t>DC-2</t>
+        </is>
+      </c>
+      <c r="AH298" t="inlineStr">
+        <is>
+          <t>DC-2</t>
+        </is>
+      </c>
+      <c r="AI298" t="inlineStr">
+        <is>
+          <t>DC-2</t>
+        </is>
+      </c>
+      <c r="AJ298" t="inlineStr">
+        <is>
+          <t>DC-8</t>
+        </is>
+      </c>
+      <c r="AK298" t="inlineStr">
+        <is>
+          <t>DC-2</t>
+        </is>
+      </c>
+      <c r="AL298" t="inlineStr">
+        <is>
+          <t>DC-2</t>
+        </is>
+      </c>
+      <c r="AM298" t="inlineStr">
+        <is>
+          <t>DC-2</t>
+        </is>
+      </c>
+      <c r="AN298" t="inlineStr">
+        <is>
+          <t>DC-2</t>
+        </is>
+      </c>
+      <c r="AO298" t="inlineStr">
+        <is>
+          <t>DC-2</t>
+        </is>
+      </c>
+      <c r="AP298" t="inlineStr">
+        <is>
+          <t>DC-2</t>
+        </is>
+      </c>
+      <c r="AQ298" t="inlineStr">
+        <is>
+          <t>DC-2</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -11142,6 +13832,46 @@
       <c r="B307" t="inlineStr">
         <is>
           <t>Detalle</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>DC-1</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>DC-2</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>DC-2</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>DC-2</t>
+        </is>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>DC-3</t>
+        </is>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>DC-4</t>
+        </is>
+      </c>
+      <c r="I307" t="inlineStr">
+        <is>
+          <t>DC-5</t>
+        </is>
+      </c>
+      <c r="J307" t="inlineStr">
+        <is>
+          <t>DC-5</t>
         </is>
       </c>
     </row>
